--- a/src/BBDD/first_trimester/exercises/ejercicio1/ejercicio1_BBDD_ER.xlsx
+++ b/src/BBDD/first_trimester/exercises/ejercicio1/ejercicio1_BBDD_ER.xlsx
@@ -55,7 +55,7 @@
     <t>Texto</t>
   </si>
   <si>
-    <t>Identificador del cliente como documento nacional de identidad más su letra</t>
+    <t>Documento nacional de identidad más su letra</t>
   </si>
   <si>
     <t>nombre_cliente</t>
@@ -197,11 +197,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -227,6 +222,11 @@
       <b/>
       <u/>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -272,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -286,21 +286,18 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -315,18 +312,18 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -608,13 +605,13 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -631,7 +628,7 @@
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -651,7 +648,7 @@
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -677,7 +674,7 @@
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -700,7 +697,7 @@
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -731,7 +728,7 @@
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -800,10 +797,10 @@
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="J19" s="9"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" ht="14.25" customHeight="1"/>
     <row r="22" ht="14.25" customHeight="1"/>
@@ -1812,10 +1809,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1832,3066 +1829,3066 @@
       <c r="A2" s="3">
         <v>834569.0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>45435.0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <f>almacenar!C2+almacenar!C3</f>
         <v>65.15</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="B15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
+      <c r="B19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
+      <c r="B20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="B22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+      <c r="B23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
+      <c r="B25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
+      <c r="B27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="16"/>
+      <c r="B29" s="15"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="16"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="B31" s="16"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="16"/>
+      <c r="B32" s="15"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="16"/>
+      <c r="B33" s="15"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="B34" s="16"/>
+      <c r="B34" s="15"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="16"/>
+      <c r="B35" s="15"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="B36" s="16"/>
+      <c r="B36" s="15"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="B37" s="16"/>
+      <c r="B37" s="15"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="16"/>
+      <c r="B38" s="15"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="B39" s="16"/>
+      <c r="B39" s="15"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="B40" s="16"/>
+      <c r="B40" s="15"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="B41" s="16"/>
+      <c r="B41" s="15"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="B42" s="16"/>
+      <c r="B42" s="15"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="B43" s="16"/>
+      <c r="B43" s="15"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="B44" s="16"/>
+      <c r="B44" s="15"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="16"/>
+      <c r="B45" s="15"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="16"/>
+      <c r="B46" s="15"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="B47" s="16"/>
+      <c r="B47" s="15"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="B48" s="16"/>
+      <c r="B48" s="15"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="B49" s="16"/>
+      <c r="B49" s="15"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="B50" s="16"/>
+      <c r="B50" s="15"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="B51" s="16"/>
+      <c r="B51" s="15"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="B52" s="16"/>
+      <c r="B52" s="15"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="B53" s="16"/>
+      <c r="B53" s="15"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="B54" s="16"/>
+      <c r="B54" s="15"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="B55" s="16"/>
+      <c r="B55" s="15"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="B56" s="16"/>
+      <c r="B56" s="15"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="B57" s="16"/>
+      <c r="B57" s="15"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="B58" s="16"/>
+      <c r="B58" s="15"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="B59" s="16"/>
+      <c r="B59" s="15"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="B60" s="16"/>
+      <c r="B60" s="15"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="B61" s="16"/>
+      <c r="B61" s="15"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="B62" s="16"/>
+      <c r="B62" s="15"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="B63" s="16"/>
+      <c r="B63" s="15"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="B64" s="16"/>
+      <c r="B64" s="15"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="B65" s="16"/>
+      <c r="B65" s="15"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="B66" s="16"/>
+      <c r="B66" s="15"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="B67" s="16"/>
+      <c r="B67" s="15"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="B68" s="16"/>
+      <c r="B68" s="15"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="B69" s="16"/>
+      <c r="B69" s="15"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="B70" s="16"/>
+      <c r="B70" s="15"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="B71" s="16"/>
+      <c r="B71" s="15"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="B72" s="16"/>
+      <c r="B72" s="15"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="B73" s="16"/>
+      <c r="B73" s="15"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="B74" s="16"/>
+      <c r="B74" s="15"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="B75" s="16"/>
+      <c r="B75" s="15"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="B76" s="16"/>
+      <c r="B76" s="15"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="B77" s="16"/>
+      <c r="B77" s="15"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="B78" s="16"/>
+      <c r="B78" s="15"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="B79" s="16"/>
+      <c r="B79" s="15"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="B80" s="16"/>
+      <c r="B80" s="15"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="B81" s="16"/>
+      <c r="B81" s="15"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="B82" s="16"/>
+      <c r="B82" s="15"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="B83" s="16"/>
+      <c r="B83" s="15"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="B84" s="16"/>
+      <c r="B84" s="15"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="B85" s="16"/>
+      <c r="B85" s="15"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="B86" s="16"/>
+      <c r="B86" s="15"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="B87" s="16"/>
+      <c r="B87" s="15"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="B88" s="16"/>
+      <c r="B88" s="15"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="B89" s="16"/>
+      <c r="B89" s="15"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="B90" s="16"/>
+      <c r="B90" s="15"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="B91" s="16"/>
+      <c r="B91" s="15"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="B92" s="16"/>
+      <c r="B92" s="15"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="B93" s="16"/>
+      <c r="B93" s="15"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="B94" s="16"/>
+      <c r="B94" s="15"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="B95" s="16"/>
+      <c r="B95" s="15"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="B96" s="16"/>
+      <c r="B96" s="15"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="B97" s="16"/>
+      <c r="B97" s="15"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="B98" s="16"/>
+      <c r="B98" s="15"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="B99" s="16"/>
+      <c r="B99" s="15"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="B100" s="16"/>
+      <c r="B100" s="15"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="B101" s="16"/>
+      <c r="B101" s="15"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="B102" s="16"/>
+      <c r="B102" s="15"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="B103" s="16"/>
+      <c r="B103" s="15"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="B104" s="16"/>
+      <c r="B104" s="15"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="B105" s="16"/>
+      <c r="B105" s="15"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="B106" s="16"/>
+      <c r="B106" s="15"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="B107" s="16"/>
+      <c r="B107" s="15"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="B108" s="16"/>
+      <c r="B108" s="15"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="B109" s="16"/>
+      <c r="B109" s="15"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="B110" s="16"/>
+      <c r="B110" s="15"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="B111" s="16"/>
+      <c r="B111" s="15"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="B112" s="16"/>
+      <c r="B112" s="15"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="B113" s="16"/>
+      <c r="B113" s="15"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="B114" s="16"/>
+      <c r="B114" s="15"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="B115" s="16"/>
+      <c r="B115" s="15"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="B116" s="16"/>
+      <c r="B116" s="15"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="B117" s="16"/>
+      <c r="B117" s="15"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="B118" s="16"/>
+      <c r="B118" s="15"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="B119" s="16"/>
+      <c r="B119" s="15"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="B120" s="16"/>
+      <c r="B120" s="15"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="B121" s="16"/>
+      <c r="B121" s="15"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="B122" s="16"/>
+      <c r="B122" s="15"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="B123" s="16"/>
+      <c r="B123" s="15"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="B124" s="16"/>
+      <c r="B124" s="15"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="B125" s="16"/>
+      <c r="B125" s="15"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="B126" s="16"/>
+      <c r="B126" s="15"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="B127" s="16"/>
+      <c r="B127" s="15"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="B128" s="16"/>
+      <c r="B128" s="15"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="B129" s="16"/>
+      <c r="B129" s="15"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="B130" s="16"/>
+      <c r="B130" s="15"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="B131" s="16"/>
+      <c r="B131" s="15"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="B132" s="16"/>
+      <c r="B132" s="15"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="B133" s="16"/>
+      <c r="B133" s="15"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="B134" s="16"/>
+      <c r="B134" s="15"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="B135" s="16"/>
+      <c r="B135" s="15"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="B136" s="16"/>
+      <c r="B136" s="15"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="B137" s="16"/>
+      <c r="B137" s="15"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="B138" s="16"/>
+      <c r="B138" s="15"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="B139" s="16"/>
+      <c r="B139" s="15"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="B140" s="16"/>
+      <c r="B140" s="15"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="B141" s="16"/>
+      <c r="B141" s="15"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="B142" s="16"/>
+      <c r="B142" s="15"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="B143" s="16"/>
+      <c r="B143" s="15"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="B144" s="16"/>
+      <c r="B144" s="15"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="B145" s="16"/>
+      <c r="B145" s="15"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="B146" s="16"/>
+      <c r="B146" s="15"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="B147" s="16"/>
+      <c r="B147" s="15"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="B148" s="16"/>
+      <c r="B148" s="15"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="B149" s="16"/>
+      <c r="B149" s="15"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="B150" s="16"/>
+      <c r="B150" s="15"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="B151" s="16"/>
+      <c r="B151" s="15"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="B152" s="16"/>
+      <c r="B152" s="15"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="B153" s="16"/>
+      <c r="B153" s="15"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="B154" s="16"/>
+      <c r="B154" s="15"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="B155" s="16"/>
+      <c r="B155" s="15"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="B156" s="16"/>
+      <c r="B156" s="15"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="B157" s="16"/>
+      <c r="B157" s="15"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="B158" s="16"/>
+      <c r="B158" s="15"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="B159" s="16"/>
+      <c r="B159" s="15"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="B160" s="16"/>
+      <c r="B160" s="15"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="B161" s="16"/>
+      <c r="B161" s="15"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="B162" s="16"/>
+      <c r="B162" s="15"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="B163" s="16"/>
+      <c r="B163" s="15"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="B164" s="16"/>
+      <c r="B164" s="15"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="B165" s="16"/>
+      <c r="B165" s="15"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="B166" s="16"/>
+      <c r="B166" s="15"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="B167" s="16"/>
+      <c r="B167" s="15"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="B168" s="16"/>
+      <c r="B168" s="15"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="B169" s="16"/>
+      <c r="B169" s="15"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="B170" s="16"/>
+      <c r="B170" s="15"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="B171" s="16"/>
+      <c r="B171" s="15"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="B172" s="16"/>
+      <c r="B172" s="15"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="B173" s="16"/>
+      <c r="B173" s="15"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="B174" s="16"/>
+      <c r="B174" s="15"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="B175" s="16"/>
+      <c r="B175" s="15"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="B176" s="16"/>
+      <c r="B176" s="15"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="B177" s="16"/>
+      <c r="B177" s="15"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="B178" s="16"/>
+      <c r="B178" s="15"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="B179" s="16"/>
+      <c r="B179" s="15"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="B180" s="16"/>
+      <c r="B180" s="15"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="B181" s="16"/>
+      <c r="B181" s="15"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="B182" s="16"/>
+      <c r="B182" s="15"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="B183" s="16"/>
+      <c r="B183" s="15"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="B184" s="16"/>
+      <c r="B184" s="15"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="B185" s="16"/>
+      <c r="B185" s="15"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="B186" s="16"/>
+      <c r="B186" s="15"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="B187" s="16"/>
+      <c r="B187" s="15"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="B188" s="16"/>
+      <c r="B188" s="15"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="B189" s="16"/>
+      <c r="B189" s="15"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="B190" s="16"/>
+      <c r="B190" s="15"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="B191" s="16"/>
+      <c r="B191" s="15"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="B192" s="16"/>
+      <c r="B192" s="15"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="B193" s="16"/>
+      <c r="B193" s="15"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="B194" s="16"/>
+      <c r="B194" s="15"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="B195" s="16"/>
+      <c r="B195" s="15"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="B196" s="16"/>
+      <c r="B196" s="15"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="B197" s="16"/>
+      <c r="B197" s="15"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="B198" s="16"/>
+      <c r="B198" s="15"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="B199" s="16"/>
+      <c r="B199" s="15"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="B200" s="16"/>
+      <c r="B200" s="15"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="B201" s="16"/>
+      <c r="B201" s="15"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="B202" s="16"/>
+      <c r="B202" s="15"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="B203" s="16"/>
+      <c r="B203" s="15"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="B204" s="16"/>
+      <c r="B204" s="15"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="B205" s="16"/>
+      <c r="B205" s="15"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="B206" s="16"/>
+      <c r="B206" s="15"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="B207" s="16"/>
+      <c r="B207" s="15"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="B208" s="16"/>
+      <c r="B208" s="15"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="B209" s="16"/>
+      <c r="B209" s="15"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="B210" s="16"/>
+      <c r="B210" s="15"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="B211" s="16"/>
+      <c r="B211" s="15"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="B212" s="16"/>
+      <c r="B212" s="15"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="B213" s="16"/>
+      <c r="B213" s="15"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="B214" s="16"/>
+      <c r="B214" s="15"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="B215" s="16"/>
+      <c r="B215" s="15"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="B216" s="16"/>
+      <c r="B216" s="15"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="B217" s="16"/>
+      <c r="B217" s="15"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="B218" s="16"/>
+      <c r="B218" s="15"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="B219" s="16"/>
+      <c r="B219" s="15"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="B220" s="16"/>
+      <c r="B220" s="15"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
-      <c r="B221" s="16"/>
+      <c r="B221" s="15"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
-      <c r="B222" s="16"/>
+      <c r="B222" s="15"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
-      <c r="B223" s="16"/>
+      <c r="B223" s="15"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
-      <c r="B224" s="16"/>
+      <c r="B224" s="15"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
-      <c r="B225" s="16"/>
+      <c r="B225" s="15"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
-      <c r="B226" s="16"/>
+      <c r="B226" s="15"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
-      <c r="B227" s="16"/>
+      <c r="B227" s="15"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
-      <c r="B228" s="16"/>
+      <c r="B228" s="15"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
-      <c r="B229" s="16"/>
+      <c r="B229" s="15"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
-      <c r="B230" s="16"/>
+      <c r="B230" s="15"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
-      <c r="B231" s="16"/>
+      <c r="B231" s="15"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
-      <c r="B232" s="16"/>
+      <c r="B232" s="15"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
-      <c r="B233" s="16"/>
+      <c r="B233" s="15"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
-      <c r="B234" s="16"/>
+      <c r="B234" s="15"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
-      <c r="B235" s="16"/>
+      <c r="B235" s="15"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
-      <c r="B236" s="16"/>
+      <c r="B236" s="15"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
-      <c r="B237" s="16"/>
+      <c r="B237" s="15"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
-      <c r="B238" s="16"/>
+      <c r="B238" s="15"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
-      <c r="B239" s="16"/>
+      <c r="B239" s="15"/>
     </row>
     <row r="240" ht="14.25" customHeight="1">
-      <c r="B240" s="16"/>
+      <c r="B240" s="15"/>
     </row>
     <row r="241" ht="14.25" customHeight="1">
-      <c r="B241" s="16"/>
+      <c r="B241" s="15"/>
     </row>
     <row r="242" ht="14.25" customHeight="1">
-      <c r="B242" s="16"/>
+      <c r="B242" s="15"/>
     </row>
     <row r="243" ht="14.25" customHeight="1">
-      <c r="B243" s="16"/>
+      <c r="B243" s="15"/>
     </row>
     <row r="244" ht="14.25" customHeight="1">
-      <c r="B244" s="16"/>
+      <c r="B244" s="15"/>
     </row>
     <row r="245" ht="14.25" customHeight="1">
-      <c r="B245" s="16"/>
+      <c r="B245" s="15"/>
     </row>
     <row r="246" ht="14.25" customHeight="1">
-      <c r="B246" s="16"/>
+      <c r="B246" s="15"/>
     </row>
     <row r="247" ht="14.25" customHeight="1">
-      <c r="B247" s="16"/>
+      <c r="B247" s="15"/>
     </row>
     <row r="248" ht="14.25" customHeight="1">
-      <c r="B248" s="16"/>
+      <c r="B248" s="15"/>
     </row>
     <row r="249" ht="14.25" customHeight="1">
-      <c r="B249" s="16"/>
+      <c r="B249" s="15"/>
     </row>
     <row r="250" ht="14.25" customHeight="1">
-      <c r="B250" s="16"/>
+      <c r="B250" s="15"/>
     </row>
     <row r="251" ht="14.25" customHeight="1">
-      <c r="B251" s="16"/>
+      <c r="B251" s="15"/>
     </row>
     <row r="252" ht="14.25" customHeight="1">
-      <c r="B252" s="16"/>
+      <c r="B252" s="15"/>
     </row>
     <row r="253" ht="14.25" customHeight="1">
-      <c r="B253" s="16"/>
+      <c r="B253" s="15"/>
     </row>
     <row r="254" ht="14.25" customHeight="1">
-      <c r="B254" s="16"/>
+      <c r="B254" s="15"/>
     </row>
     <row r="255" ht="14.25" customHeight="1">
-      <c r="B255" s="16"/>
+      <c r="B255" s="15"/>
     </row>
     <row r="256" ht="14.25" customHeight="1">
-      <c r="B256" s="16"/>
+      <c r="B256" s="15"/>
     </row>
     <row r="257" ht="14.25" customHeight="1">
-      <c r="B257" s="16"/>
+      <c r="B257" s="15"/>
     </row>
     <row r="258" ht="14.25" customHeight="1">
-      <c r="B258" s="16"/>
+      <c r="B258" s="15"/>
     </row>
     <row r="259" ht="14.25" customHeight="1">
-      <c r="B259" s="16"/>
+      <c r="B259" s="15"/>
     </row>
     <row r="260" ht="14.25" customHeight="1">
-      <c r="B260" s="16"/>
+      <c r="B260" s="15"/>
     </row>
     <row r="261" ht="14.25" customHeight="1">
-      <c r="B261" s="16"/>
+      <c r="B261" s="15"/>
     </row>
     <row r="262" ht="14.25" customHeight="1">
-      <c r="B262" s="16"/>
+      <c r="B262" s="15"/>
     </row>
     <row r="263" ht="14.25" customHeight="1">
-      <c r="B263" s="16"/>
+      <c r="B263" s="15"/>
     </row>
     <row r="264" ht="14.25" customHeight="1">
-      <c r="B264" s="16"/>
+      <c r="B264" s="15"/>
     </row>
     <row r="265" ht="14.25" customHeight="1">
-      <c r="B265" s="16"/>
+      <c r="B265" s="15"/>
     </row>
     <row r="266" ht="14.25" customHeight="1">
-      <c r="B266" s="16"/>
+      <c r="B266" s="15"/>
     </row>
     <row r="267" ht="14.25" customHeight="1">
-      <c r="B267" s="16"/>
+      <c r="B267" s="15"/>
     </row>
     <row r="268" ht="14.25" customHeight="1">
-      <c r="B268" s="16"/>
+      <c r="B268" s="15"/>
     </row>
     <row r="269" ht="14.25" customHeight="1">
-      <c r="B269" s="16"/>
+      <c r="B269" s="15"/>
     </row>
     <row r="270" ht="14.25" customHeight="1">
-      <c r="B270" s="16"/>
+      <c r="B270" s="15"/>
     </row>
     <row r="271" ht="14.25" customHeight="1">
-      <c r="B271" s="16"/>
+      <c r="B271" s="15"/>
     </row>
     <row r="272" ht="14.25" customHeight="1">
-      <c r="B272" s="16"/>
+      <c r="B272" s="15"/>
     </row>
     <row r="273" ht="14.25" customHeight="1">
-      <c r="B273" s="16"/>
+      <c r="B273" s="15"/>
     </row>
     <row r="274" ht="14.25" customHeight="1">
-      <c r="B274" s="16"/>
+      <c r="B274" s="15"/>
     </row>
     <row r="275" ht="14.25" customHeight="1">
-      <c r="B275" s="16"/>
+      <c r="B275" s="15"/>
     </row>
     <row r="276" ht="14.25" customHeight="1">
-      <c r="B276" s="16"/>
+      <c r="B276" s="15"/>
     </row>
     <row r="277" ht="14.25" customHeight="1">
-      <c r="B277" s="16"/>
+      <c r="B277" s="15"/>
     </row>
     <row r="278" ht="14.25" customHeight="1">
-      <c r="B278" s="16"/>
+      <c r="B278" s="15"/>
     </row>
     <row r="279" ht="14.25" customHeight="1">
-      <c r="B279" s="16"/>
+      <c r="B279" s="15"/>
     </row>
     <row r="280" ht="14.25" customHeight="1">
-      <c r="B280" s="16"/>
+      <c r="B280" s="15"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
-      <c r="B281" s="16"/>
+      <c r="B281" s="15"/>
     </row>
     <row r="282" ht="14.25" customHeight="1">
-      <c r="B282" s="16"/>
+      <c r="B282" s="15"/>
     </row>
     <row r="283" ht="14.25" customHeight="1">
-      <c r="B283" s="16"/>
+      <c r="B283" s="15"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
-      <c r="B284" s="16"/>
+      <c r="B284" s="15"/>
     </row>
     <row r="285" ht="14.25" customHeight="1">
-      <c r="B285" s="16"/>
+      <c r="B285" s="15"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
-      <c r="B286" s="16"/>
+      <c r="B286" s="15"/>
     </row>
     <row r="287" ht="14.25" customHeight="1">
-      <c r="B287" s="16"/>
+      <c r="B287" s="15"/>
     </row>
     <row r="288" ht="14.25" customHeight="1">
-      <c r="B288" s="16"/>
+      <c r="B288" s="15"/>
     </row>
     <row r="289" ht="14.25" customHeight="1">
-      <c r="B289" s="16"/>
+      <c r="B289" s="15"/>
     </row>
     <row r="290" ht="14.25" customHeight="1">
-      <c r="B290" s="16"/>
+      <c r="B290" s="15"/>
     </row>
     <row r="291" ht="14.25" customHeight="1">
-      <c r="B291" s="16"/>
+      <c r="B291" s="15"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
-      <c r="B292" s="16"/>
+      <c r="B292" s="15"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
-      <c r="B293" s="16"/>
+      <c r="B293" s="15"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
-      <c r="B294" s="16"/>
+      <c r="B294" s="15"/>
     </row>
     <row r="295" ht="14.25" customHeight="1">
-      <c r="B295" s="16"/>
+      <c r="B295" s="15"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
-      <c r="B296" s="16"/>
+      <c r="B296" s="15"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
-      <c r="B297" s="16"/>
+      <c r="B297" s="15"/>
     </row>
     <row r="298" ht="14.25" customHeight="1">
-      <c r="B298" s="16"/>
+      <c r="B298" s="15"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
-      <c r="B299" s="16"/>
+      <c r="B299" s="15"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
-      <c r="B300" s="16"/>
+      <c r="B300" s="15"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
-      <c r="B301" s="16"/>
+      <c r="B301" s="15"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
-      <c r="B302" s="16"/>
+      <c r="B302" s="15"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
-      <c r="B303" s="16"/>
+      <c r="B303" s="15"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
-      <c r="B304" s="16"/>
+      <c r="B304" s="15"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
-      <c r="B305" s="16"/>
+      <c r="B305" s="15"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
-      <c r="B306" s="16"/>
+      <c r="B306" s="15"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
-      <c r="B307" s="16"/>
+      <c r="B307" s="15"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
-      <c r="B308" s="16"/>
+      <c r="B308" s="15"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
-      <c r="B309" s="16"/>
+      <c r="B309" s="15"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
-      <c r="B310" s="16"/>
+      <c r="B310" s="15"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
-      <c r="B311" s="16"/>
+      <c r="B311" s="15"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
-      <c r="B312" s="16"/>
+      <c r="B312" s="15"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
-      <c r="B313" s="16"/>
+      <c r="B313" s="15"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
-      <c r="B314" s="16"/>
+      <c r="B314" s="15"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
-      <c r="B315" s="16"/>
+      <c r="B315" s="15"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
-      <c r="B316" s="16"/>
+      <c r="B316" s="15"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
-      <c r="B317" s="16"/>
+      <c r="B317" s="15"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
-      <c r="B318" s="16"/>
+      <c r="B318" s="15"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
-      <c r="B319" s="16"/>
+      <c r="B319" s="15"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
-      <c r="B320" s="16"/>
+      <c r="B320" s="15"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
-      <c r="B321" s="16"/>
+      <c r="B321" s="15"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
-      <c r="B322" s="16"/>
+      <c r="B322" s="15"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
-      <c r="B323" s="16"/>
+      <c r="B323" s="15"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
-      <c r="B324" s="16"/>
+      <c r="B324" s="15"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
-      <c r="B325" s="16"/>
+      <c r="B325" s="15"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
-      <c r="B326" s="16"/>
+      <c r="B326" s="15"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
-      <c r="B327" s="16"/>
+      <c r="B327" s="15"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
-      <c r="B328" s="16"/>
+      <c r="B328" s="15"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
-      <c r="B329" s="16"/>
+      <c r="B329" s="15"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
-      <c r="B330" s="16"/>
+      <c r="B330" s="15"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
-      <c r="B331" s="16"/>
+      <c r="B331" s="15"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
-      <c r="B332" s="16"/>
+      <c r="B332" s="15"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
-      <c r="B333" s="16"/>
+      <c r="B333" s="15"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
-      <c r="B334" s="16"/>
+      <c r="B334" s="15"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
-      <c r="B335" s="16"/>
+      <c r="B335" s="15"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
-      <c r="B336" s="16"/>
+      <c r="B336" s="15"/>
     </row>
     <row r="337" ht="14.25" customHeight="1">
-      <c r="B337" s="16"/>
+      <c r="B337" s="15"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
-      <c r="B338" s="16"/>
+      <c r="B338" s="15"/>
     </row>
     <row r="339" ht="14.25" customHeight="1">
-      <c r="B339" s="16"/>
+      <c r="B339" s="15"/>
     </row>
     <row r="340" ht="14.25" customHeight="1">
-      <c r="B340" s="16"/>
+      <c r="B340" s="15"/>
     </row>
     <row r="341" ht="14.25" customHeight="1">
-      <c r="B341" s="16"/>
+      <c r="B341" s="15"/>
     </row>
     <row r="342" ht="14.25" customHeight="1">
-      <c r="B342" s="16"/>
+      <c r="B342" s="15"/>
     </row>
     <row r="343" ht="14.25" customHeight="1">
-      <c r="B343" s="16"/>
+      <c r="B343" s="15"/>
     </row>
     <row r="344" ht="14.25" customHeight="1">
-      <c r="B344" s="16"/>
+      <c r="B344" s="15"/>
     </row>
     <row r="345" ht="14.25" customHeight="1">
-      <c r="B345" s="16"/>
+      <c r="B345" s="15"/>
     </row>
     <row r="346" ht="14.25" customHeight="1">
-      <c r="B346" s="16"/>
+      <c r="B346" s="15"/>
     </row>
     <row r="347" ht="14.25" customHeight="1">
-      <c r="B347" s="16"/>
+      <c r="B347" s="15"/>
     </row>
     <row r="348" ht="14.25" customHeight="1">
-      <c r="B348" s="16"/>
+      <c r="B348" s="15"/>
     </row>
     <row r="349" ht="14.25" customHeight="1">
-      <c r="B349" s="16"/>
+      <c r="B349" s="15"/>
     </row>
     <row r="350" ht="14.25" customHeight="1">
-      <c r="B350" s="16"/>
+      <c r="B350" s="15"/>
     </row>
     <row r="351" ht="14.25" customHeight="1">
-      <c r="B351" s="16"/>
+      <c r="B351" s="15"/>
     </row>
     <row r="352" ht="14.25" customHeight="1">
-      <c r="B352" s="16"/>
+      <c r="B352" s="15"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
-      <c r="B353" s="16"/>
+      <c r="B353" s="15"/>
     </row>
     <row r="354" ht="14.25" customHeight="1">
-      <c r="B354" s="16"/>
+      <c r="B354" s="15"/>
     </row>
     <row r="355" ht="14.25" customHeight="1">
-      <c r="B355" s="16"/>
+      <c r="B355" s="15"/>
     </row>
     <row r="356" ht="14.25" customHeight="1">
-      <c r="B356" s="16"/>
+      <c r="B356" s="15"/>
     </row>
     <row r="357" ht="14.25" customHeight="1">
-      <c r="B357" s="16"/>
+      <c r="B357" s="15"/>
     </row>
     <row r="358" ht="14.25" customHeight="1">
-      <c r="B358" s="16"/>
+      <c r="B358" s="15"/>
     </row>
     <row r="359" ht="14.25" customHeight="1">
-      <c r="B359" s="16"/>
+      <c r="B359" s="15"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
-      <c r="B360" s="16"/>
+      <c r="B360" s="15"/>
     </row>
     <row r="361" ht="14.25" customHeight="1">
-      <c r="B361" s="16"/>
+      <c r="B361" s="15"/>
     </row>
     <row r="362" ht="14.25" customHeight="1">
-      <c r="B362" s="16"/>
+      <c r="B362" s="15"/>
     </row>
     <row r="363" ht="14.25" customHeight="1">
-      <c r="B363" s="16"/>
+      <c r="B363" s="15"/>
     </row>
     <row r="364" ht="14.25" customHeight="1">
-      <c r="B364" s="16"/>
+      <c r="B364" s="15"/>
     </row>
     <row r="365" ht="14.25" customHeight="1">
-      <c r="B365" s="16"/>
+      <c r="B365" s="15"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
-      <c r="B366" s="16"/>
+      <c r="B366" s="15"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
-      <c r="B367" s="16"/>
+      <c r="B367" s="15"/>
     </row>
     <row r="368" ht="14.25" customHeight="1">
-      <c r="B368" s="16"/>
+      <c r="B368" s="15"/>
     </row>
     <row r="369" ht="14.25" customHeight="1">
-      <c r="B369" s="16"/>
+      <c r="B369" s="15"/>
     </row>
     <row r="370" ht="14.25" customHeight="1">
-      <c r="B370" s="16"/>
+      <c r="B370" s="15"/>
     </row>
     <row r="371" ht="14.25" customHeight="1">
-      <c r="B371" s="16"/>
+      <c r="B371" s="15"/>
     </row>
     <row r="372" ht="14.25" customHeight="1">
-      <c r="B372" s="16"/>
+      <c r="B372" s="15"/>
     </row>
     <row r="373" ht="14.25" customHeight="1">
-      <c r="B373" s="16"/>
+      <c r="B373" s="15"/>
     </row>
     <row r="374" ht="14.25" customHeight="1">
-      <c r="B374" s="16"/>
+      <c r="B374" s="15"/>
     </row>
     <row r="375" ht="14.25" customHeight="1">
-      <c r="B375" s="16"/>
+      <c r="B375" s="15"/>
     </row>
     <row r="376" ht="14.25" customHeight="1">
-      <c r="B376" s="16"/>
+      <c r="B376" s="15"/>
     </row>
     <row r="377" ht="14.25" customHeight="1">
-      <c r="B377" s="16"/>
+      <c r="B377" s="15"/>
     </row>
     <row r="378" ht="14.25" customHeight="1">
-      <c r="B378" s="16"/>
+      <c r="B378" s="15"/>
     </row>
     <row r="379" ht="14.25" customHeight="1">
-      <c r="B379" s="16"/>
+      <c r="B379" s="15"/>
     </row>
     <row r="380" ht="14.25" customHeight="1">
-      <c r="B380" s="16"/>
+      <c r="B380" s="15"/>
     </row>
     <row r="381" ht="14.25" customHeight="1">
-      <c r="B381" s="16"/>
+      <c r="B381" s="15"/>
     </row>
     <row r="382" ht="14.25" customHeight="1">
-      <c r="B382" s="16"/>
+      <c r="B382" s="15"/>
     </row>
     <row r="383" ht="14.25" customHeight="1">
-      <c r="B383" s="16"/>
+      <c r="B383" s="15"/>
     </row>
     <row r="384" ht="14.25" customHeight="1">
-      <c r="B384" s="16"/>
+      <c r="B384" s="15"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
-      <c r="B385" s="16"/>
+      <c r="B385" s="15"/>
     </row>
     <row r="386" ht="14.25" customHeight="1">
-      <c r="B386" s="16"/>
+      <c r="B386" s="15"/>
     </row>
     <row r="387" ht="14.25" customHeight="1">
-      <c r="B387" s="16"/>
+      <c r="B387" s="15"/>
     </row>
     <row r="388" ht="14.25" customHeight="1">
-      <c r="B388" s="16"/>
+      <c r="B388" s="15"/>
     </row>
     <row r="389" ht="14.25" customHeight="1">
-      <c r="B389" s="16"/>
+      <c r="B389" s="15"/>
     </row>
     <row r="390" ht="14.25" customHeight="1">
-      <c r="B390" s="16"/>
+      <c r="B390" s="15"/>
     </row>
     <row r="391" ht="14.25" customHeight="1">
-      <c r="B391" s="16"/>
+      <c r="B391" s="15"/>
     </row>
     <row r="392" ht="14.25" customHeight="1">
-      <c r="B392" s="16"/>
+      <c r="B392" s="15"/>
     </row>
     <row r="393" ht="14.25" customHeight="1">
-      <c r="B393" s="16"/>
+      <c r="B393" s="15"/>
     </row>
     <row r="394" ht="14.25" customHeight="1">
-      <c r="B394" s="16"/>
+      <c r="B394" s="15"/>
     </row>
     <row r="395" ht="14.25" customHeight="1">
-      <c r="B395" s="16"/>
+      <c r="B395" s="15"/>
     </row>
     <row r="396" ht="14.25" customHeight="1">
-      <c r="B396" s="16"/>
+      <c r="B396" s="15"/>
     </row>
     <row r="397" ht="14.25" customHeight="1">
-      <c r="B397" s="16"/>
+      <c r="B397" s="15"/>
     </row>
     <row r="398" ht="14.25" customHeight="1">
-      <c r="B398" s="16"/>
+      <c r="B398" s="15"/>
     </row>
     <row r="399" ht="14.25" customHeight="1">
-      <c r="B399" s="16"/>
+      <c r="B399" s="15"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
-      <c r="B400" s="16"/>
+      <c r="B400" s="15"/>
     </row>
     <row r="401" ht="14.25" customHeight="1">
-      <c r="B401" s="16"/>
+      <c r="B401" s="15"/>
     </row>
     <row r="402" ht="14.25" customHeight="1">
-      <c r="B402" s="16"/>
+      <c r="B402" s="15"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
-      <c r="B403" s="16"/>
+      <c r="B403" s="15"/>
     </row>
     <row r="404" ht="14.25" customHeight="1">
-      <c r="B404" s="16"/>
+      <c r="B404" s="15"/>
     </row>
     <row r="405" ht="14.25" customHeight="1">
-      <c r="B405" s="16"/>
+      <c r="B405" s="15"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
-      <c r="B406" s="16"/>
+      <c r="B406" s="15"/>
     </row>
     <row r="407" ht="14.25" customHeight="1">
-      <c r="B407" s="16"/>
+      <c r="B407" s="15"/>
     </row>
     <row r="408" ht="14.25" customHeight="1">
-      <c r="B408" s="16"/>
+      <c r="B408" s="15"/>
     </row>
     <row r="409" ht="14.25" customHeight="1">
-      <c r="B409" s="16"/>
+      <c r="B409" s="15"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
-      <c r="B410" s="16"/>
+      <c r="B410" s="15"/>
     </row>
     <row r="411" ht="14.25" customHeight="1">
-      <c r="B411" s="16"/>
+      <c r="B411" s="15"/>
     </row>
     <row r="412" ht="14.25" customHeight="1">
-      <c r="B412" s="16"/>
+      <c r="B412" s="15"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
-      <c r="B413" s="16"/>
+      <c r="B413" s="15"/>
     </row>
     <row r="414" ht="14.25" customHeight="1">
-      <c r="B414" s="16"/>
+      <c r="B414" s="15"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
-      <c r="B415" s="16"/>
+      <c r="B415" s="15"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
-      <c r="B416" s="16"/>
+      <c r="B416" s="15"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
-      <c r="B417" s="16"/>
+      <c r="B417" s="15"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
-      <c r="B418" s="16"/>
+      <c r="B418" s="15"/>
     </row>
     <row r="419" ht="14.25" customHeight="1">
-      <c r="B419" s="16"/>
+      <c r="B419" s="15"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
-      <c r="B420" s="16"/>
+      <c r="B420" s="15"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
-      <c r="B421" s="16"/>
+      <c r="B421" s="15"/>
     </row>
     <row r="422" ht="14.25" customHeight="1">
-      <c r="B422" s="16"/>
+      <c r="B422" s="15"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
-      <c r="B423" s="16"/>
+      <c r="B423" s="15"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
-      <c r="B424" s="16"/>
+      <c r="B424" s="15"/>
     </row>
     <row r="425" ht="14.25" customHeight="1">
-      <c r="B425" s="16"/>
+      <c r="B425" s="15"/>
     </row>
     <row r="426" ht="14.25" customHeight="1">
-      <c r="B426" s="16"/>
+      <c r="B426" s="15"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
-      <c r="B427" s="16"/>
+      <c r="B427" s="15"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
-      <c r="B428" s="16"/>
+      <c r="B428" s="15"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
-      <c r="B429" s="16"/>
+      <c r="B429" s="15"/>
     </row>
     <row r="430" ht="14.25" customHeight="1">
-      <c r="B430" s="16"/>
+      <c r="B430" s="15"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
-      <c r="B431" s="16"/>
+      <c r="B431" s="15"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
-      <c r="B432" s="16"/>
+      <c r="B432" s="15"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
-      <c r="B433" s="16"/>
+      <c r="B433" s="15"/>
     </row>
     <row r="434" ht="14.25" customHeight="1">
-      <c r="B434" s="16"/>
+      <c r="B434" s="15"/>
     </row>
     <row r="435" ht="14.25" customHeight="1">
-      <c r="B435" s="16"/>
+      <c r="B435" s="15"/>
     </row>
     <row r="436" ht="14.25" customHeight="1">
-      <c r="B436" s="16"/>
+      <c r="B436" s="15"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
-      <c r="B437" s="16"/>
+      <c r="B437" s="15"/>
     </row>
     <row r="438" ht="14.25" customHeight="1">
-      <c r="B438" s="16"/>
+      <c r="B438" s="15"/>
     </row>
     <row r="439" ht="14.25" customHeight="1">
-      <c r="B439" s="16"/>
+      <c r="B439" s="15"/>
     </row>
     <row r="440" ht="14.25" customHeight="1">
-      <c r="B440" s="16"/>
+      <c r="B440" s="15"/>
     </row>
     <row r="441" ht="14.25" customHeight="1">
-      <c r="B441" s="16"/>
+      <c r="B441" s="15"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
-      <c r="B442" s="16"/>
+      <c r="B442" s="15"/>
     </row>
     <row r="443" ht="14.25" customHeight="1">
-      <c r="B443" s="16"/>
+      <c r="B443" s="15"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
-      <c r="B444" s="16"/>
+      <c r="B444" s="15"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
-      <c r="B445" s="16"/>
+      <c r="B445" s="15"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
-      <c r="B446" s="16"/>
+      <c r="B446" s="15"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
-      <c r="B447" s="16"/>
+      <c r="B447" s="15"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
-      <c r="B448" s="16"/>
+      <c r="B448" s="15"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
-      <c r="B449" s="16"/>
+      <c r="B449" s="15"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
-      <c r="B450" s="16"/>
+      <c r="B450" s="15"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
-      <c r="B451" s="16"/>
+      <c r="B451" s="15"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
-      <c r="B452" s="16"/>
+      <c r="B452" s="15"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
-      <c r="B453" s="16"/>
+      <c r="B453" s="15"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
-      <c r="B454" s="16"/>
+      <c r="B454" s="15"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
-      <c r="B455" s="16"/>
+      <c r="B455" s="15"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
-      <c r="B456" s="16"/>
+      <c r="B456" s="15"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
-      <c r="B457" s="16"/>
+      <c r="B457" s="15"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
-      <c r="B458" s="16"/>
+      <c r="B458" s="15"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
-      <c r="B459" s="16"/>
+      <c r="B459" s="15"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
-      <c r="B460" s="16"/>
+      <c r="B460" s="15"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
-      <c r="B461" s="16"/>
+      <c r="B461" s="15"/>
     </row>
     <row r="462" ht="14.25" customHeight="1">
-      <c r="B462" s="16"/>
+      <c r="B462" s="15"/>
     </row>
     <row r="463" ht="14.25" customHeight="1">
-      <c r="B463" s="16"/>
+      <c r="B463" s="15"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
-      <c r="B464" s="16"/>
+      <c r="B464" s="15"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
-      <c r="B465" s="16"/>
+      <c r="B465" s="15"/>
     </row>
     <row r="466" ht="14.25" customHeight="1">
-      <c r="B466" s="16"/>
+      <c r="B466" s="15"/>
     </row>
     <row r="467" ht="14.25" customHeight="1">
-      <c r="B467" s="16"/>
+      <c r="B467" s="15"/>
     </row>
     <row r="468" ht="14.25" customHeight="1">
-      <c r="B468" s="16"/>
+      <c r="B468" s="15"/>
     </row>
     <row r="469" ht="14.25" customHeight="1">
-      <c r="B469" s="16"/>
+      <c r="B469" s="15"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
-      <c r="B470" s="16"/>
+      <c r="B470" s="15"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
-      <c r="B471" s="16"/>
+      <c r="B471" s="15"/>
     </row>
     <row r="472" ht="14.25" customHeight="1">
-      <c r="B472" s="16"/>
+      <c r="B472" s="15"/>
     </row>
     <row r="473" ht="14.25" customHeight="1">
-      <c r="B473" s="16"/>
+      <c r="B473" s="15"/>
     </row>
     <row r="474" ht="14.25" customHeight="1">
-      <c r="B474" s="16"/>
+      <c r="B474" s="15"/>
     </row>
     <row r="475" ht="14.25" customHeight="1">
-      <c r="B475" s="16"/>
+      <c r="B475" s="15"/>
     </row>
     <row r="476" ht="14.25" customHeight="1">
-      <c r="B476" s="16"/>
+      <c r="B476" s="15"/>
     </row>
     <row r="477" ht="14.25" customHeight="1">
-      <c r="B477" s="16"/>
+      <c r="B477" s="15"/>
     </row>
     <row r="478" ht="14.25" customHeight="1">
-      <c r="B478" s="16"/>
+      <c r="B478" s="15"/>
     </row>
     <row r="479" ht="14.25" customHeight="1">
-      <c r="B479" s="16"/>
+      <c r="B479" s="15"/>
     </row>
     <row r="480" ht="14.25" customHeight="1">
-      <c r="B480" s="16"/>
+      <c r="B480" s="15"/>
     </row>
     <row r="481" ht="14.25" customHeight="1">
-      <c r="B481" s="16"/>
+      <c r="B481" s="15"/>
     </row>
     <row r="482" ht="14.25" customHeight="1">
-      <c r="B482" s="16"/>
+      <c r="B482" s="15"/>
     </row>
     <row r="483" ht="14.25" customHeight="1">
-      <c r="B483" s="16"/>
+      <c r="B483" s="15"/>
     </row>
     <row r="484" ht="14.25" customHeight="1">
-      <c r="B484" s="16"/>
+      <c r="B484" s="15"/>
     </row>
     <row r="485" ht="14.25" customHeight="1">
-      <c r="B485" s="16"/>
+      <c r="B485" s="15"/>
     </row>
     <row r="486" ht="14.25" customHeight="1">
-      <c r="B486" s="16"/>
+      <c r="B486" s="15"/>
     </row>
     <row r="487" ht="14.25" customHeight="1">
-      <c r="B487" s="16"/>
+      <c r="B487" s="15"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
-      <c r="B488" s="16"/>
+      <c r="B488" s="15"/>
     </row>
     <row r="489" ht="14.25" customHeight="1">
-      <c r="B489" s="16"/>
+      <c r="B489" s="15"/>
     </row>
     <row r="490" ht="14.25" customHeight="1">
-      <c r="B490" s="16"/>
+      <c r="B490" s="15"/>
     </row>
     <row r="491" ht="14.25" customHeight="1">
-      <c r="B491" s="16"/>
+      <c r="B491" s="15"/>
     </row>
     <row r="492" ht="14.25" customHeight="1">
-      <c r="B492" s="16"/>
+      <c r="B492" s="15"/>
     </row>
     <row r="493" ht="14.25" customHeight="1">
-      <c r="B493" s="16"/>
+      <c r="B493" s="15"/>
     </row>
     <row r="494" ht="14.25" customHeight="1">
-      <c r="B494" s="16"/>
+      <c r="B494" s="15"/>
     </row>
     <row r="495" ht="14.25" customHeight="1">
-      <c r="B495" s="16"/>
+      <c r="B495" s="15"/>
     </row>
     <row r="496" ht="14.25" customHeight="1">
-      <c r="B496" s="16"/>
+      <c r="B496" s="15"/>
     </row>
     <row r="497" ht="14.25" customHeight="1">
-      <c r="B497" s="16"/>
+      <c r="B497" s="15"/>
     </row>
     <row r="498" ht="14.25" customHeight="1">
-      <c r="B498" s="16"/>
+      <c r="B498" s="15"/>
     </row>
     <row r="499" ht="14.25" customHeight="1">
-      <c r="B499" s="16"/>
+      <c r="B499" s="15"/>
     </row>
     <row r="500" ht="14.25" customHeight="1">
-      <c r="B500" s="16"/>
+      <c r="B500" s="15"/>
     </row>
     <row r="501" ht="14.25" customHeight="1">
-      <c r="B501" s="16"/>
+      <c r="B501" s="15"/>
     </row>
     <row r="502" ht="14.25" customHeight="1">
-      <c r="B502" s="16"/>
+      <c r="B502" s="15"/>
     </row>
     <row r="503" ht="14.25" customHeight="1">
-      <c r="B503" s="16"/>
+      <c r="B503" s="15"/>
     </row>
     <row r="504" ht="14.25" customHeight="1">
-      <c r="B504" s="16"/>
+      <c r="B504" s="15"/>
     </row>
     <row r="505" ht="14.25" customHeight="1">
-      <c r="B505" s="16"/>
+      <c r="B505" s="15"/>
     </row>
     <row r="506" ht="14.25" customHeight="1">
-      <c r="B506" s="16"/>
+      <c r="B506" s="15"/>
     </row>
     <row r="507" ht="14.25" customHeight="1">
-      <c r="B507" s="16"/>
+      <c r="B507" s="15"/>
     </row>
     <row r="508" ht="14.25" customHeight="1">
-      <c r="B508" s="16"/>
+      <c r="B508" s="15"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
-      <c r="B509" s="16"/>
+      <c r="B509" s="15"/>
     </row>
     <row r="510" ht="14.25" customHeight="1">
-      <c r="B510" s="16"/>
+      <c r="B510" s="15"/>
     </row>
     <row r="511" ht="14.25" customHeight="1">
-      <c r="B511" s="16"/>
+      <c r="B511" s="15"/>
     </row>
     <row r="512" ht="14.25" customHeight="1">
-      <c r="B512" s="16"/>
+      <c r="B512" s="15"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
-      <c r="B513" s="16"/>
+      <c r="B513" s="15"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
-      <c r="B514" s="16"/>
+      <c r="B514" s="15"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
-      <c r="B515" s="16"/>
+      <c r="B515" s="15"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
-      <c r="B516" s="16"/>
+      <c r="B516" s="15"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
-      <c r="B517" s="16"/>
+      <c r="B517" s="15"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
-      <c r="B518" s="16"/>
+      <c r="B518" s="15"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
-      <c r="B519" s="16"/>
+      <c r="B519" s="15"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
-      <c r="B520" s="16"/>
+      <c r="B520" s="15"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
-      <c r="B521" s="16"/>
+      <c r="B521" s="15"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
-      <c r="B522" s="16"/>
+      <c r="B522" s="15"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
-      <c r="B523" s="16"/>
+      <c r="B523" s="15"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
-      <c r="B524" s="16"/>
+      <c r="B524" s="15"/>
     </row>
     <row r="525" ht="14.25" customHeight="1">
-      <c r="B525" s="16"/>
+      <c r="B525" s="15"/>
     </row>
     <row r="526" ht="14.25" customHeight="1">
-      <c r="B526" s="16"/>
+      <c r="B526" s="15"/>
     </row>
     <row r="527" ht="14.25" customHeight="1">
-      <c r="B527" s="16"/>
+      <c r="B527" s="15"/>
     </row>
     <row r="528" ht="14.25" customHeight="1">
-      <c r="B528" s="16"/>
+      <c r="B528" s="15"/>
     </row>
     <row r="529" ht="14.25" customHeight="1">
-      <c r="B529" s="16"/>
+      <c r="B529" s="15"/>
     </row>
     <row r="530" ht="14.25" customHeight="1">
-      <c r="B530" s="16"/>
+      <c r="B530" s="15"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
-      <c r="B531" s="16"/>
+      <c r="B531" s="15"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
-      <c r="B532" s="16"/>
+      <c r="B532" s="15"/>
     </row>
     <row r="533" ht="14.25" customHeight="1">
-      <c r="B533" s="16"/>
+      <c r="B533" s="15"/>
     </row>
     <row r="534" ht="14.25" customHeight="1">
-      <c r="B534" s="16"/>
+      <c r="B534" s="15"/>
     </row>
     <row r="535" ht="14.25" customHeight="1">
-      <c r="B535" s="16"/>
+      <c r="B535" s="15"/>
     </row>
     <row r="536" ht="14.25" customHeight="1">
-      <c r="B536" s="16"/>
+      <c r="B536" s="15"/>
     </row>
     <row r="537" ht="14.25" customHeight="1">
-      <c r="B537" s="16"/>
+      <c r="B537" s="15"/>
     </row>
     <row r="538" ht="14.25" customHeight="1">
-      <c r="B538" s="16"/>
+      <c r="B538" s="15"/>
     </row>
     <row r="539" ht="14.25" customHeight="1">
-      <c r="B539" s="16"/>
+      <c r="B539" s="15"/>
     </row>
     <row r="540" ht="14.25" customHeight="1">
-      <c r="B540" s="16"/>
+      <c r="B540" s="15"/>
     </row>
     <row r="541" ht="14.25" customHeight="1">
-      <c r="B541" s="16"/>
+      <c r="B541" s="15"/>
     </row>
     <row r="542" ht="14.25" customHeight="1">
-      <c r="B542" s="16"/>
+      <c r="B542" s="15"/>
     </row>
     <row r="543" ht="14.25" customHeight="1">
-      <c r="B543" s="16"/>
+      <c r="B543" s="15"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
-      <c r="B544" s="16"/>
+      <c r="B544" s="15"/>
     </row>
     <row r="545" ht="14.25" customHeight="1">
-      <c r="B545" s="16"/>
+      <c r="B545" s="15"/>
     </row>
     <row r="546" ht="14.25" customHeight="1">
-      <c r="B546" s="16"/>
+      <c r="B546" s="15"/>
     </row>
     <row r="547" ht="14.25" customHeight="1">
-      <c r="B547" s="16"/>
+      <c r="B547" s="15"/>
     </row>
     <row r="548" ht="14.25" customHeight="1">
-      <c r="B548" s="16"/>
+      <c r="B548" s="15"/>
     </row>
     <row r="549" ht="14.25" customHeight="1">
-      <c r="B549" s="16"/>
+      <c r="B549" s="15"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
-      <c r="B550" s="16"/>
+      <c r="B550" s="15"/>
     </row>
     <row r="551" ht="14.25" customHeight="1">
-      <c r="B551" s="16"/>
+      <c r="B551" s="15"/>
     </row>
     <row r="552" ht="14.25" customHeight="1">
-      <c r="B552" s="16"/>
+      <c r="B552" s="15"/>
     </row>
     <row r="553" ht="14.25" customHeight="1">
-      <c r="B553" s="16"/>
+      <c r="B553" s="15"/>
     </row>
     <row r="554" ht="14.25" customHeight="1">
-      <c r="B554" s="16"/>
+      <c r="B554" s="15"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
-      <c r="B555" s="16"/>
+      <c r="B555" s="15"/>
     </row>
     <row r="556" ht="14.25" customHeight="1">
-      <c r="B556" s="16"/>
+      <c r="B556" s="15"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
-      <c r="B557" s="16"/>
+      <c r="B557" s="15"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
-      <c r="B558" s="16"/>
+      <c r="B558" s="15"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
-      <c r="B559" s="16"/>
+      <c r="B559" s="15"/>
     </row>
     <row r="560" ht="14.25" customHeight="1">
-      <c r="B560" s="16"/>
+      <c r="B560" s="15"/>
     </row>
     <row r="561" ht="14.25" customHeight="1">
-      <c r="B561" s="16"/>
+      <c r="B561" s="15"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
-      <c r="B562" s="16"/>
+      <c r="B562" s="15"/>
     </row>
     <row r="563" ht="14.25" customHeight="1">
-      <c r="B563" s="16"/>
+      <c r="B563" s="15"/>
     </row>
     <row r="564" ht="14.25" customHeight="1">
-      <c r="B564" s="16"/>
+      <c r="B564" s="15"/>
     </row>
     <row r="565" ht="14.25" customHeight="1">
-      <c r="B565" s="16"/>
+      <c r="B565" s="15"/>
     </row>
     <row r="566" ht="14.25" customHeight="1">
-      <c r="B566" s="16"/>
+      <c r="B566" s="15"/>
     </row>
     <row r="567" ht="14.25" customHeight="1">
-      <c r="B567" s="16"/>
+      <c r="B567" s="15"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
-      <c r="B568" s="16"/>
+      <c r="B568" s="15"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
-      <c r="B569" s="16"/>
+      <c r="B569" s="15"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
-      <c r="B570" s="16"/>
+      <c r="B570" s="15"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
-      <c r="B571" s="16"/>
+      <c r="B571" s="15"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
-      <c r="B572" s="16"/>
+      <c r="B572" s="15"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
-      <c r="B573" s="16"/>
+      <c r="B573" s="15"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
-      <c r="B574" s="16"/>
+      <c r="B574" s="15"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
-      <c r="B575" s="16"/>
+      <c r="B575" s="15"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
-      <c r="B576" s="16"/>
+      <c r="B576" s="15"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
-      <c r="B577" s="16"/>
+      <c r="B577" s="15"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
-      <c r="B578" s="16"/>
+      <c r="B578" s="15"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
-      <c r="B579" s="16"/>
+      <c r="B579" s="15"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
-      <c r="B580" s="16"/>
+      <c r="B580" s="15"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
-      <c r="B581" s="16"/>
+      <c r="B581" s="15"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
-      <c r="B582" s="16"/>
+      <c r="B582" s="15"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
-      <c r="B583" s="16"/>
+      <c r="B583" s="15"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
-      <c r="B584" s="16"/>
+      <c r="B584" s="15"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
-      <c r="B585" s="16"/>
+      <c r="B585" s="15"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
-      <c r="B586" s="16"/>
+      <c r="B586" s="15"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
-      <c r="B587" s="16"/>
+      <c r="B587" s="15"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
-      <c r="B588" s="16"/>
+      <c r="B588" s="15"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
-      <c r="B589" s="16"/>
+      <c r="B589" s="15"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
-      <c r="B590" s="16"/>
+      <c r="B590" s="15"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
-      <c r="B591" s="16"/>
+      <c r="B591" s="15"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
-      <c r="B592" s="16"/>
+      <c r="B592" s="15"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
-      <c r="B593" s="16"/>
+      <c r="B593" s="15"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
-      <c r="B594" s="16"/>
+      <c r="B594" s="15"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
-      <c r="B595" s="16"/>
+      <c r="B595" s="15"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
-      <c r="B596" s="16"/>
+      <c r="B596" s="15"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
-      <c r="B597" s="16"/>
+      <c r="B597" s="15"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
-      <c r="B598" s="16"/>
+      <c r="B598" s="15"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
-      <c r="B599" s="16"/>
+      <c r="B599" s="15"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
-      <c r="B600" s="16"/>
+      <c r="B600" s="15"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
-      <c r="B601" s="16"/>
+      <c r="B601" s="15"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
-      <c r="B602" s="16"/>
+      <c r="B602" s="15"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
-      <c r="B603" s="16"/>
+      <c r="B603" s="15"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="B604" s="16"/>
+      <c r="B604" s="15"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="B605" s="16"/>
+      <c r="B605" s="15"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
-      <c r="B606" s="16"/>
+      <c r="B606" s="15"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="B607" s="16"/>
+      <c r="B607" s="15"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="B608" s="16"/>
+      <c r="B608" s="15"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="B609" s="16"/>
+      <c r="B609" s="15"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="B610" s="16"/>
+      <c r="B610" s="15"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="B611" s="16"/>
+      <c r="B611" s="15"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="B612" s="16"/>
+      <c r="B612" s="15"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="B613" s="16"/>
+      <c r="B613" s="15"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="B614" s="16"/>
+      <c r="B614" s="15"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="B615" s="16"/>
+      <c r="B615" s="15"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="B616" s="16"/>
+      <c r="B616" s="15"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="B617" s="16"/>
+      <c r="B617" s="15"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="B618" s="16"/>
+      <c r="B618" s="15"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="B619" s="16"/>
+      <c r="B619" s="15"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="B620" s="16"/>
+      <c r="B620" s="15"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="B621" s="16"/>
+      <c r="B621" s="15"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
-      <c r="B622" s="16"/>
+      <c r="B622" s="15"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
-      <c r="B623" s="16"/>
+      <c r="B623" s="15"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="B624" s="16"/>
+      <c r="B624" s="15"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="B625" s="16"/>
+      <c r="B625" s="15"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="B626" s="16"/>
+      <c r="B626" s="15"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="B627" s="16"/>
+      <c r="B627" s="15"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="B628" s="16"/>
+      <c r="B628" s="15"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="B629" s="16"/>
+      <c r="B629" s="15"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
-      <c r="B630" s="16"/>
+      <c r="B630" s="15"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="B631" s="16"/>
+      <c r="B631" s="15"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="B632" s="16"/>
+      <c r="B632" s="15"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
-      <c r="B633" s="16"/>
+      <c r="B633" s="15"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
-      <c r="B634" s="16"/>
+      <c r="B634" s="15"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
-      <c r="B635" s="16"/>
+      <c r="B635" s="15"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
-      <c r="B636" s="16"/>
+      <c r="B636" s="15"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
-      <c r="B637" s="16"/>
+      <c r="B637" s="15"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
-      <c r="B638" s="16"/>
+      <c r="B638" s="15"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
-      <c r="B639" s="16"/>
+      <c r="B639" s="15"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
-      <c r="B640" s="16"/>
+      <c r="B640" s="15"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
-      <c r="B641" s="16"/>
+      <c r="B641" s="15"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
-      <c r="B642" s="16"/>
+      <c r="B642" s="15"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
-      <c r="B643" s="16"/>
+      <c r="B643" s="15"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
-      <c r="B644" s="16"/>
+      <c r="B644" s="15"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
-      <c r="B645" s="16"/>
+      <c r="B645" s="15"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
-      <c r="B646" s="16"/>
+      <c r="B646" s="15"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
-      <c r="B647" s="16"/>
+      <c r="B647" s="15"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
-      <c r="B648" s="16"/>
+      <c r="B648" s="15"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
-      <c r="B649" s="16"/>
+      <c r="B649" s="15"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
-      <c r="B650" s="16"/>
+      <c r="B650" s="15"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
-      <c r="B651" s="16"/>
+      <c r="B651" s="15"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
-      <c r="B652" s="16"/>
+      <c r="B652" s="15"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
-      <c r="B653" s="16"/>
+      <c r="B653" s="15"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
-      <c r="B654" s="16"/>
+      <c r="B654" s="15"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
-      <c r="B655" s="16"/>
+      <c r="B655" s="15"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
-      <c r="B656" s="16"/>
+      <c r="B656" s="15"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
-      <c r="B657" s="16"/>
+      <c r="B657" s="15"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
-      <c r="B658" s="16"/>
+      <c r="B658" s="15"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
-      <c r="B659" s="16"/>
+      <c r="B659" s="15"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
-      <c r="B660" s="16"/>
+      <c r="B660" s="15"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
-      <c r="B661" s="16"/>
+      <c r="B661" s="15"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
-      <c r="B662" s="16"/>
+      <c r="B662" s="15"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
-      <c r="B663" s="16"/>
+      <c r="B663" s="15"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
-      <c r="B664" s="16"/>
+      <c r="B664" s="15"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
-      <c r="B665" s="16"/>
+      <c r="B665" s="15"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
-      <c r="B666" s="16"/>
+      <c r="B666" s="15"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
-      <c r="B667" s="16"/>
+      <c r="B667" s="15"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
-      <c r="B668" s="16"/>
+      <c r="B668" s="15"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
-      <c r="B669" s="16"/>
+      <c r="B669" s="15"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
-      <c r="B670" s="16"/>
+      <c r="B670" s="15"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
-      <c r="B671" s="16"/>
+      <c r="B671" s="15"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
-      <c r="B672" s="16"/>
+      <c r="B672" s="15"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
-      <c r="B673" s="16"/>
+      <c r="B673" s="15"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
-      <c r="B674" s="16"/>
+      <c r="B674" s="15"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
-      <c r="B675" s="16"/>
+      <c r="B675" s="15"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
-      <c r="B676" s="16"/>
+      <c r="B676" s="15"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
-      <c r="B677" s="16"/>
+      <c r="B677" s="15"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
-      <c r="B678" s="16"/>
+      <c r="B678" s="15"/>
     </row>
     <row r="679" ht="14.25" customHeight="1">
-      <c r="B679" s="16"/>
+      <c r="B679" s="15"/>
     </row>
     <row r="680" ht="14.25" customHeight="1">
-      <c r="B680" s="16"/>
+      <c r="B680" s="15"/>
     </row>
     <row r="681" ht="14.25" customHeight="1">
-      <c r="B681" s="16"/>
+      <c r="B681" s="15"/>
     </row>
     <row r="682" ht="14.25" customHeight="1">
-      <c r="B682" s="16"/>
+      <c r="B682" s="15"/>
     </row>
     <row r="683" ht="14.25" customHeight="1">
-      <c r="B683" s="16"/>
+      <c r="B683" s="15"/>
     </row>
     <row r="684" ht="14.25" customHeight="1">
-      <c r="B684" s="16"/>
+      <c r="B684" s="15"/>
     </row>
     <row r="685" ht="14.25" customHeight="1">
-      <c r="B685" s="16"/>
+      <c r="B685" s="15"/>
     </row>
     <row r="686" ht="14.25" customHeight="1">
-      <c r="B686" s="16"/>
+      <c r="B686" s="15"/>
     </row>
     <row r="687" ht="14.25" customHeight="1">
-      <c r="B687" s="16"/>
+      <c r="B687" s="15"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
-      <c r="B688" s="16"/>
+      <c r="B688" s="15"/>
     </row>
     <row r="689" ht="14.25" customHeight="1">
-      <c r="B689" s="16"/>
+      <c r="B689" s="15"/>
     </row>
     <row r="690" ht="14.25" customHeight="1">
-      <c r="B690" s="16"/>
+      <c r="B690" s="15"/>
     </row>
     <row r="691" ht="14.25" customHeight="1">
-      <c r="B691" s="16"/>
+      <c r="B691" s="15"/>
     </row>
     <row r="692" ht="14.25" customHeight="1">
-      <c r="B692" s="16"/>
+      <c r="B692" s="15"/>
     </row>
     <row r="693" ht="14.25" customHeight="1">
-      <c r="B693" s="16"/>
+      <c r="B693" s="15"/>
     </row>
     <row r="694" ht="14.25" customHeight="1">
-      <c r="B694" s="16"/>
+      <c r="B694" s="15"/>
     </row>
     <row r="695" ht="14.25" customHeight="1">
-      <c r="B695" s="16"/>
+      <c r="B695" s="15"/>
     </row>
     <row r="696" ht="14.25" customHeight="1">
-      <c r="B696" s="16"/>
+      <c r="B696" s="15"/>
     </row>
     <row r="697" ht="14.25" customHeight="1">
-      <c r="B697" s="16"/>
+      <c r="B697" s="15"/>
     </row>
     <row r="698" ht="14.25" customHeight="1">
-      <c r="B698" s="16"/>
+      <c r="B698" s="15"/>
     </row>
     <row r="699" ht="14.25" customHeight="1">
-      <c r="B699" s="16"/>
+      <c r="B699" s="15"/>
     </row>
     <row r="700" ht="14.25" customHeight="1">
-      <c r="B700" s="16"/>
+      <c r="B700" s="15"/>
     </row>
     <row r="701" ht="14.25" customHeight="1">
-      <c r="B701" s="16"/>
+      <c r="B701" s="15"/>
     </row>
     <row r="702" ht="14.25" customHeight="1">
-      <c r="B702" s="16"/>
+      <c r="B702" s="15"/>
     </row>
     <row r="703" ht="14.25" customHeight="1">
-      <c r="B703" s="16"/>
+      <c r="B703" s="15"/>
     </row>
     <row r="704" ht="14.25" customHeight="1">
-      <c r="B704" s="16"/>
+      <c r="B704" s="15"/>
     </row>
     <row r="705" ht="14.25" customHeight="1">
-      <c r="B705" s="16"/>
+      <c r="B705" s="15"/>
     </row>
     <row r="706" ht="14.25" customHeight="1">
-      <c r="B706" s="16"/>
+      <c r="B706" s="15"/>
     </row>
     <row r="707" ht="14.25" customHeight="1">
-      <c r="B707" s="16"/>
+      <c r="B707" s="15"/>
     </row>
     <row r="708" ht="14.25" customHeight="1">
-      <c r="B708" s="16"/>
+      <c r="B708" s="15"/>
     </row>
     <row r="709" ht="14.25" customHeight="1">
-      <c r="B709" s="16"/>
+      <c r="B709" s="15"/>
     </row>
     <row r="710" ht="14.25" customHeight="1">
-      <c r="B710" s="16"/>
+      <c r="B710" s="15"/>
     </row>
     <row r="711" ht="14.25" customHeight="1">
-      <c r="B711" s="16"/>
+      <c r="B711" s="15"/>
     </row>
     <row r="712" ht="14.25" customHeight="1">
-      <c r="B712" s="16"/>
+      <c r="B712" s="15"/>
     </row>
     <row r="713" ht="14.25" customHeight="1">
-      <c r="B713" s="16"/>
+      <c r="B713" s="15"/>
     </row>
     <row r="714" ht="14.25" customHeight="1">
-      <c r="B714" s="16"/>
+      <c r="B714" s="15"/>
     </row>
     <row r="715" ht="14.25" customHeight="1">
-      <c r="B715" s="16"/>
+      <c r="B715" s="15"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
-      <c r="B716" s="16"/>
+      <c r="B716" s="15"/>
     </row>
     <row r="717" ht="14.25" customHeight="1">
-      <c r="B717" s="16"/>
+      <c r="B717" s="15"/>
     </row>
     <row r="718" ht="14.25" customHeight="1">
-      <c r="B718" s="16"/>
+      <c r="B718" s="15"/>
     </row>
     <row r="719" ht="14.25" customHeight="1">
-      <c r="B719" s="16"/>
+      <c r="B719" s="15"/>
     </row>
     <row r="720" ht="14.25" customHeight="1">
-      <c r="B720" s="16"/>
+      <c r="B720" s="15"/>
     </row>
     <row r="721" ht="14.25" customHeight="1">
-      <c r="B721" s="16"/>
+      <c r="B721" s="15"/>
     </row>
     <row r="722" ht="14.25" customHeight="1">
-      <c r="B722" s="16"/>
+      <c r="B722" s="15"/>
     </row>
     <row r="723" ht="14.25" customHeight="1">
-      <c r="B723" s="16"/>
+      <c r="B723" s="15"/>
     </row>
     <row r="724" ht="14.25" customHeight="1">
-      <c r="B724" s="16"/>
+      <c r="B724" s="15"/>
     </row>
     <row r="725" ht="14.25" customHeight="1">
-      <c r="B725" s="16"/>
+      <c r="B725" s="15"/>
     </row>
     <row r="726" ht="14.25" customHeight="1">
-      <c r="B726" s="16"/>
+      <c r="B726" s="15"/>
     </row>
     <row r="727" ht="14.25" customHeight="1">
-      <c r="B727" s="16"/>
+      <c r="B727" s="15"/>
     </row>
     <row r="728" ht="14.25" customHeight="1">
-      <c r="B728" s="16"/>
+      <c r="B728" s="15"/>
     </row>
     <row r="729" ht="14.25" customHeight="1">
-      <c r="B729" s="16"/>
+      <c r="B729" s="15"/>
     </row>
     <row r="730" ht="14.25" customHeight="1">
-      <c r="B730" s="16"/>
+      <c r="B730" s="15"/>
     </row>
     <row r="731" ht="14.25" customHeight="1">
-      <c r="B731" s="16"/>
+      <c r="B731" s="15"/>
     </row>
     <row r="732" ht="14.25" customHeight="1">
-      <c r="B732" s="16"/>
+      <c r="B732" s="15"/>
     </row>
     <row r="733" ht="14.25" customHeight="1">
-      <c r="B733" s="16"/>
+      <c r="B733" s="15"/>
     </row>
     <row r="734" ht="14.25" customHeight="1">
-      <c r="B734" s="16"/>
+      <c r="B734" s="15"/>
     </row>
     <row r="735" ht="14.25" customHeight="1">
-      <c r="B735" s="16"/>
+      <c r="B735" s="15"/>
     </row>
     <row r="736" ht="14.25" customHeight="1">
-      <c r="B736" s="16"/>
+      <c r="B736" s="15"/>
     </row>
     <row r="737" ht="14.25" customHeight="1">
-      <c r="B737" s="16"/>
+      <c r="B737" s="15"/>
     </row>
     <row r="738" ht="14.25" customHeight="1">
-      <c r="B738" s="16"/>
+      <c r="B738" s="15"/>
     </row>
     <row r="739" ht="14.25" customHeight="1">
-      <c r="B739" s="16"/>
+      <c r="B739" s="15"/>
     </row>
     <row r="740" ht="14.25" customHeight="1">
-      <c r="B740" s="16"/>
+      <c r="B740" s="15"/>
     </row>
     <row r="741" ht="14.25" customHeight="1">
-      <c r="B741" s="16"/>
+      <c r="B741" s="15"/>
     </row>
     <row r="742" ht="14.25" customHeight="1">
-      <c r="B742" s="16"/>
+      <c r="B742" s="15"/>
     </row>
     <row r="743" ht="14.25" customHeight="1">
-      <c r="B743" s="16"/>
+      <c r="B743" s="15"/>
     </row>
     <row r="744" ht="14.25" customHeight="1">
-      <c r="B744" s="16"/>
+      <c r="B744" s="15"/>
     </row>
     <row r="745" ht="14.25" customHeight="1">
-      <c r="B745" s="16"/>
+      <c r="B745" s="15"/>
     </row>
     <row r="746" ht="14.25" customHeight="1">
-      <c r="B746" s="16"/>
+      <c r="B746" s="15"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
-      <c r="B747" s="16"/>
+      <c r="B747" s="15"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
-      <c r="B748" s="16"/>
+      <c r="B748" s="15"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
-      <c r="B749" s="16"/>
+      <c r="B749" s="15"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
-      <c r="B750" s="16"/>
+      <c r="B750" s="15"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
-      <c r="B751" s="16"/>
+      <c r="B751" s="15"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
-      <c r="B752" s="16"/>
+      <c r="B752" s="15"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
-      <c r="B753" s="16"/>
+      <c r="B753" s="15"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
-      <c r="B754" s="16"/>
+      <c r="B754" s="15"/>
     </row>
     <row r="755" ht="14.25" customHeight="1">
-      <c r="B755" s="16"/>
+      <c r="B755" s="15"/>
     </row>
     <row r="756" ht="14.25" customHeight="1">
-      <c r="B756" s="16"/>
+      <c r="B756" s="15"/>
     </row>
     <row r="757" ht="14.25" customHeight="1">
-      <c r="B757" s="16"/>
+      <c r="B757" s="15"/>
     </row>
     <row r="758" ht="14.25" customHeight="1">
-      <c r="B758" s="16"/>
+      <c r="B758" s="15"/>
     </row>
     <row r="759" ht="14.25" customHeight="1">
-      <c r="B759" s="16"/>
+      <c r="B759" s="15"/>
     </row>
     <row r="760" ht="14.25" customHeight="1">
-      <c r="B760" s="16"/>
+      <c r="B760" s="15"/>
     </row>
     <row r="761" ht="14.25" customHeight="1">
-      <c r="B761" s="16"/>
+      <c r="B761" s="15"/>
     </row>
     <row r="762" ht="14.25" customHeight="1">
-      <c r="B762" s="16"/>
+      <c r="B762" s="15"/>
     </row>
     <row r="763" ht="14.25" customHeight="1">
-      <c r="B763" s="16"/>
+      <c r="B763" s="15"/>
     </row>
     <row r="764" ht="14.25" customHeight="1">
-      <c r="B764" s="16"/>
+      <c r="B764" s="15"/>
     </row>
     <row r="765" ht="14.25" customHeight="1">
-      <c r="B765" s="16"/>
+      <c r="B765" s="15"/>
     </row>
     <row r="766" ht="14.25" customHeight="1">
-      <c r="B766" s="16"/>
+      <c r="B766" s="15"/>
     </row>
     <row r="767" ht="14.25" customHeight="1">
-      <c r="B767" s="16"/>
+      <c r="B767" s="15"/>
     </row>
     <row r="768" ht="14.25" customHeight="1">
-      <c r="B768" s="16"/>
+      <c r="B768" s="15"/>
     </row>
     <row r="769" ht="14.25" customHeight="1">
-      <c r="B769" s="16"/>
+      <c r="B769" s="15"/>
     </row>
     <row r="770" ht="14.25" customHeight="1">
-      <c r="B770" s="16"/>
+      <c r="B770" s="15"/>
     </row>
     <row r="771" ht="14.25" customHeight="1">
-      <c r="B771" s="16"/>
+      <c r="B771" s="15"/>
     </row>
     <row r="772" ht="14.25" customHeight="1">
-      <c r="B772" s="16"/>
+      <c r="B772" s="15"/>
     </row>
     <row r="773" ht="14.25" customHeight="1">
-      <c r="B773" s="16"/>
+      <c r="B773" s="15"/>
     </row>
     <row r="774" ht="14.25" customHeight="1">
-      <c r="B774" s="16"/>
+      <c r="B774" s="15"/>
     </row>
     <row r="775" ht="14.25" customHeight="1">
-      <c r="B775" s="16"/>
+      <c r="B775" s="15"/>
     </row>
     <row r="776" ht="14.25" customHeight="1">
-      <c r="B776" s="16"/>
+      <c r="B776" s="15"/>
     </row>
     <row r="777" ht="14.25" customHeight="1">
-      <c r="B777" s="16"/>
+      <c r="B777" s="15"/>
     </row>
     <row r="778" ht="14.25" customHeight="1">
-      <c r="B778" s="16"/>
+      <c r="B778" s="15"/>
     </row>
     <row r="779" ht="14.25" customHeight="1">
-      <c r="B779" s="16"/>
+      <c r="B779" s="15"/>
     </row>
     <row r="780" ht="14.25" customHeight="1">
-      <c r="B780" s="16"/>
+      <c r="B780" s="15"/>
     </row>
     <row r="781" ht="14.25" customHeight="1">
-      <c r="B781" s="16"/>
+      <c r="B781" s="15"/>
     </row>
     <row r="782" ht="14.25" customHeight="1">
-      <c r="B782" s="16"/>
+      <c r="B782" s="15"/>
     </row>
     <row r="783" ht="14.25" customHeight="1">
-      <c r="B783" s="16"/>
+      <c r="B783" s="15"/>
     </row>
     <row r="784" ht="14.25" customHeight="1">
-      <c r="B784" s="16"/>
+      <c r="B784" s="15"/>
     </row>
     <row r="785" ht="14.25" customHeight="1">
-      <c r="B785" s="16"/>
+      <c r="B785" s="15"/>
     </row>
     <row r="786" ht="14.25" customHeight="1">
-      <c r="B786" s="16"/>
+      <c r="B786" s="15"/>
     </row>
     <row r="787" ht="14.25" customHeight="1">
-      <c r="B787" s="16"/>
+      <c r="B787" s="15"/>
     </row>
     <row r="788" ht="14.25" customHeight="1">
-      <c r="B788" s="16"/>
+      <c r="B788" s="15"/>
     </row>
     <row r="789" ht="14.25" customHeight="1">
-      <c r="B789" s="16"/>
+      <c r="B789" s="15"/>
     </row>
     <row r="790" ht="14.25" customHeight="1">
-      <c r="B790" s="16"/>
+      <c r="B790" s="15"/>
     </row>
     <row r="791" ht="14.25" customHeight="1">
-      <c r="B791" s="16"/>
+      <c r="B791" s="15"/>
     </row>
     <row r="792" ht="14.25" customHeight="1">
-      <c r="B792" s="16"/>
+      <c r="B792" s="15"/>
     </row>
     <row r="793" ht="14.25" customHeight="1">
-      <c r="B793" s="16"/>
+      <c r="B793" s="15"/>
     </row>
     <row r="794" ht="14.25" customHeight="1">
-      <c r="B794" s="16"/>
+      <c r="B794" s="15"/>
     </row>
     <row r="795" ht="14.25" customHeight="1">
-      <c r="B795" s="16"/>
+      <c r="B795" s="15"/>
     </row>
     <row r="796" ht="14.25" customHeight="1">
-      <c r="B796" s="16"/>
+      <c r="B796" s="15"/>
     </row>
     <row r="797" ht="14.25" customHeight="1">
-      <c r="B797" s="16"/>
+      <c r="B797" s="15"/>
     </row>
     <row r="798" ht="14.25" customHeight="1">
-      <c r="B798" s="16"/>
+      <c r="B798" s="15"/>
     </row>
     <row r="799" ht="14.25" customHeight="1">
-      <c r="B799" s="16"/>
+      <c r="B799" s="15"/>
     </row>
     <row r="800" ht="14.25" customHeight="1">
-      <c r="B800" s="16"/>
+      <c r="B800" s="15"/>
     </row>
     <row r="801" ht="14.25" customHeight="1">
-      <c r="B801" s="16"/>
+      <c r="B801" s="15"/>
     </row>
     <row r="802" ht="14.25" customHeight="1">
-      <c r="B802" s="16"/>
+      <c r="B802" s="15"/>
     </row>
     <row r="803" ht="14.25" customHeight="1">
-      <c r="B803" s="16"/>
+      <c r="B803" s="15"/>
     </row>
     <row r="804" ht="14.25" customHeight="1">
-      <c r="B804" s="16"/>
+      <c r="B804" s="15"/>
     </row>
     <row r="805" ht="14.25" customHeight="1">
-      <c r="B805" s="16"/>
+      <c r="B805" s="15"/>
     </row>
     <row r="806" ht="14.25" customHeight="1">
-      <c r="B806" s="16"/>
+      <c r="B806" s="15"/>
     </row>
     <row r="807" ht="14.25" customHeight="1">
-      <c r="B807" s="16"/>
+      <c r="B807" s="15"/>
     </row>
     <row r="808" ht="14.25" customHeight="1">
-      <c r="B808" s="16"/>
+      <c r="B808" s="15"/>
     </row>
     <row r="809" ht="14.25" customHeight="1">
-      <c r="B809" s="16"/>
+      <c r="B809" s="15"/>
     </row>
     <row r="810" ht="14.25" customHeight="1">
-      <c r="B810" s="16"/>
+      <c r="B810" s="15"/>
     </row>
     <row r="811" ht="14.25" customHeight="1">
-      <c r="B811" s="16"/>
+      <c r="B811" s="15"/>
     </row>
     <row r="812" ht="14.25" customHeight="1">
-      <c r="B812" s="16"/>
+      <c r="B812" s="15"/>
     </row>
     <row r="813" ht="14.25" customHeight="1">
-      <c r="B813" s="16"/>
+      <c r="B813" s="15"/>
     </row>
     <row r="814" ht="14.25" customHeight="1">
-      <c r="B814" s="16"/>
+      <c r="B814" s="15"/>
     </row>
     <row r="815" ht="14.25" customHeight="1">
-      <c r="B815" s="16"/>
+      <c r="B815" s="15"/>
     </row>
     <row r="816" ht="14.25" customHeight="1">
-      <c r="B816" s="16"/>
+      <c r="B816" s="15"/>
     </row>
     <row r="817" ht="14.25" customHeight="1">
-      <c r="B817" s="16"/>
+      <c r="B817" s="15"/>
     </row>
     <row r="818" ht="14.25" customHeight="1">
-      <c r="B818" s="16"/>
+      <c r="B818" s="15"/>
     </row>
     <row r="819" ht="14.25" customHeight="1">
-      <c r="B819" s="16"/>
+      <c r="B819" s="15"/>
     </row>
     <row r="820" ht="14.25" customHeight="1">
-      <c r="B820" s="16"/>
+      <c r="B820" s="15"/>
     </row>
     <row r="821" ht="14.25" customHeight="1">
-      <c r="B821" s="16"/>
+      <c r="B821" s="15"/>
     </row>
     <row r="822" ht="14.25" customHeight="1">
-      <c r="B822" s="16"/>
+      <c r="B822" s="15"/>
     </row>
     <row r="823" ht="14.25" customHeight="1">
-      <c r="B823" s="16"/>
+      <c r="B823" s="15"/>
     </row>
     <row r="824" ht="14.25" customHeight="1">
-      <c r="B824" s="16"/>
+      <c r="B824" s="15"/>
     </row>
     <row r="825" ht="14.25" customHeight="1">
-      <c r="B825" s="16"/>
+      <c r="B825" s="15"/>
     </row>
     <row r="826" ht="14.25" customHeight="1">
-      <c r="B826" s="16"/>
+      <c r="B826" s="15"/>
     </row>
     <row r="827" ht="14.25" customHeight="1">
-      <c r="B827" s="16"/>
+      <c r="B827" s="15"/>
     </row>
     <row r="828" ht="14.25" customHeight="1">
-      <c r="B828" s="16"/>
+      <c r="B828" s="15"/>
     </row>
     <row r="829" ht="14.25" customHeight="1">
-      <c r="B829" s="16"/>
+      <c r="B829" s="15"/>
     </row>
     <row r="830" ht="14.25" customHeight="1">
-      <c r="B830" s="16"/>
+      <c r="B830" s="15"/>
     </row>
     <row r="831" ht="14.25" customHeight="1">
-      <c r="B831" s="16"/>
+      <c r="B831" s="15"/>
     </row>
     <row r="832" ht="14.25" customHeight="1">
-      <c r="B832" s="16"/>
+      <c r="B832" s="15"/>
     </row>
     <row r="833" ht="14.25" customHeight="1">
-      <c r="B833" s="16"/>
+      <c r="B833" s="15"/>
     </row>
     <row r="834" ht="14.25" customHeight="1">
-      <c r="B834" s="16"/>
+      <c r="B834" s="15"/>
     </row>
     <row r="835" ht="14.25" customHeight="1">
-      <c r="B835" s="16"/>
+      <c r="B835" s="15"/>
     </row>
     <row r="836" ht="14.25" customHeight="1">
-      <c r="B836" s="16"/>
+      <c r="B836" s="15"/>
     </row>
     <row r="837" ht="14.25" customHeight="1">
-      <c r="B837" s="16"/>
+      <c r="B837" s="15"/>
     </row>
     <row r="838" ht="14.25" customHeight="1">
-      <c r="B838" s="16"/>
+      <c r="B838" s="15"/>
     </row>
     <row r="839" ht="14.25" customHeight="1">
-      <c r="B839" s="16"/>
+      <c r="B839" s="15"/>
     </row>
     <row r="840" ht="14.25" customHeight="1">
-      <c r="B840" s="16"/>
+      <c r="B840" s="15"/>
     </row>
     <row r="841" ht="14.25" customHeight="1">
-      <c r="B841" s="16"/>
+      <c r="B841" s="15"/>
     </row>
     <row r="842" ht="14.25" customHeight="1">
-      <c r="B842" s="16"/>
+      <c r="B842" s="15"/>
     </row>
     <row r="843" ht="14.25" customHeight="1">
-      <c r="B843" s="16"/>
+      <c r="B843" s="15"/>
     </row>
     <row r="844" ht="14.25" customHeight="1">
-      <c r="B844" s="16"/>
+      <c r="B844" s="15"/>
     </row>
     <row r="845" ht="14.25" customHeight="1">
-      <c r="B845" s="16"/>
+      <c r="B845" s="15"/>
     </row>
     <row r="846" ht="14.25" customHeight="1">
-      <c r="B846" s="16"/>
+      <c r="B846" s="15"/>
     </row>
     <row r="847" ht="14.25" customHeight="1">
-      <c r="B847" s="16"/>
+      <c r="B847" s="15"/>
     </row>
     <row r="848" ht="14.25" customHeight="1">
-      <c r="B848" s="16"/>
+      <c r="B848" s="15"/>
     </row>
     <row r="849" ht="14.25" customHeight="1">
-      <c r="B849" s="16"/>
+      <c r="B849" s="15"/>
     </row>
     <row r="850" ht="14.25" customHeight="1">
-      <c r="B850" s="16"/>
+      <c r="B850" s="15"/>
     </row>
     <row r="851" ht="14.25" customHeight="1">
-      <c r="B851" s="16"/>
+      <c r="B851" s="15"/>
     </row>
     <row r="852" ht="14.25" customHeight="1">
-      <c r="B852" s="16"/>
+      <c r="B852" s="15"/>
     </row>
     <row r="853" ht="14.25" customHeight="1">
-      <c r="B853" s="16"/>
+      <c r="B853" s="15"/>
     </row>
     <row r="854" ht="14.25" customHeight="1">
-      <c r="B854" s="16"/>
+      <c r="B854" s="15"/>
     </row>
     <row r="855" ht="14.25" customHeight="1">
-      <c r="B855" s="16"/>
+      <c r="B855" s="15"/>
     </row>
     <row r="856" ht="14.25" customHeight="1">
-      <c r="B856" s="16"/>
+      <c r="B856" s="15"/>
     </row>
     <row r="857" ht="14.25" customHeight="1">
-      <c r="B857" s="16"/>
+      <c r="B857" s="15"/>
     </row>
     <row r="858" ht="14.25" customHeight="1">
-      <c r="B858" s="16"/>
+      <c r="B858" s="15"/>
     </row>
     <row r="859" ht="14.25" customHeight="1">
-      <c r="B859" s="16"/>
+      <c r="B859" s="15"/>
     </row>
     <row r="860" ht="14.25" customHeight="1">
-      <c r="B860" s="16"/>
+      <c r="B860" s="15"/>
     </row>
     <row r="861" ht="14.25" customHeight="1">
-      <c r="B861" s="16"/>
+      <c r="B861" s="15"/>
     </row>
     <row r="862" ht="14.25" customHeight="1">
-      <c r="B862" s="16"/>
+      <c r="B862" s="15"/>
     </row>
     <row r="863" ht="14.25" customHeight="1">
-      <c r="B863" s="16"/>
+      <c r="B863" s="15"/>
     </row>
     <row r="864" ht="14.25" customHeight="1">
-      <c r="B864" s="16"/>
+      <c r="B864" s="15"/>
     </row>
     <row r="865" ht="14.25" customHeight="1">
-      <c r="B865" s="16"/>
+      <c r="B865" s="15"/>
     </row>
     <row r="866" ht="14.25" customHeight="1">
-      <c r="B866" s="16"/>
+      <c r="B866" s="15"/>
     </row>
     <row r="867" ht="14.25" customHeight="1">
-      <c r="B867" s="16"/>
+      <c r="B867" s="15"/>
     </row>
     <row r="868" ht="14.25" customHeight="1">
-      <c r="B868" s="16"/>
+      <c r="B868" s="15"/>
     </row>
     <row r="869" ht="14.25" customHeight="1">
-      <c r="B869" s="16"/>
+      <c r="B869" s="15"/>
     </row>
     <row r="870" ht="14.25" customHeight="1">
-      <c r="B870" s="16"/>
+      <c r="B870" s="15"/>
     </row>
     <row r="871" ht="14.25" customHeight="1">
-      <c r="B871" s="16"/>
+      <c r="B871" s="15"/>
     </row>
     <row r="872" ht="14.25" customHeight="1">
-      <c r="B872" s="16"/>
+      <c r="B872" s="15"/>
     </row>
     <row r="873" ht="14.25" customHeight="1">
-      <c r="B873" s="16"/>
+      <c r="B873" s="15"/>
     </row>
     <row r="874" ht="14.25" customHeight="1">
-      <c r="B874" s="16"/>
+      <c r="B874" s="15"/>
     </row>
     <row r="875" ht="14.25" customHeight="1">
-      <c r="B875" s="16"/>
+      <c r="B875" s="15"/>
     </row>
     <row r="876" ht="14.25" customHeight="1">
-      <c r="B876" s="16"/>
+      <c r="B876" s="15"/>
     </row>
     <row r="877" ht="14.25" customHeight="1">
-      <c r="B877" s="16"/>
+      <c r="B877" s="15"/>
     </row>
     <row r="878" ht="14.25" customHeight="1">
-      <c r="B878" s="16"/>
+      <c r="B878" s="15"/>
     </row>
     <row r="879" ht="14.25" customHeight="1">
-      <c r="B879" s="16"/>
+      <c r="B879" s="15"/>
     </row>
     <row r="880" ht="14.25" customHeight="1">
-      <c r="B880" s="16"/>
+      <c r="B880" s="15"/>
     </row>
     <row r="881" ht="14.25" customHeight="1">
-      <c r="B881" s="16"/>
+      <c r="B881" s="15"/>
     </row>
     <row r="882" ht="14.25" customHeight="1">
-      <c r="B882" s="16"/>
+      <c r="B882" s="15"/>
     </row>
     <row r="883" ht="14.25" customHeight="1">
-      <c r="B883" s="16"/>
+      <c r="B883" s="15"/>
     </row>
     <row r="884" ht="14.25" customHeight="1">
-      <c r="B884" s="16"/>
+      <c r="B884" s="15"/>
     </row>
     <row r="885" ht="14.25" customHeight="1">
-      <c r="B885" s="16"/>
+      <c r="B885" s="15"/>
     </row>
     <row r="886" ht="14.25" customHeight="1">
-      <c r="B886" s="16"/>
+      <c r="B886" s="15"/>
     </row>
     <row r="887" ht="14.25" customHeight="1">
-      <c r="B887" s="16"/>
+      <c r="B887" s="15"/>
     </row>
     <row r="888" ht="14.25" customHeight="1">
-      <c r="B888" s="16"/>
+      <c r="B888" s="15"/>
     </row>
     <row r="889" ht="14.25" customHeight="1">
-      <c r="B889" s="16"/>
+      <c r="B889" s="15"/>
     </row>
     <row r="890" ht="14.25" customHeight="1">
-      <c r="B890" s="16"/>
+      <c r="B890" s="15"/>
     </row>
     <row r="891" ht="14.25" customHeight="1">
-      <c r="B891" s="16"/>
+      <c r="B891" s="15"/>
     </row>
     <row r="892" ht="14.25" customHeight="1">
-      <c r="B892" s="16"/>
+      <c r="B892" s="15"/>
     </row>
     <row r="893" ht="14.25" customHeight="1">
-      <c r="B893" s="16"/>
+      <c r="B893" s="15"/>
     </row>
     <row r="894" ht="14.25" customHeight="1">
-      <c r="B894" s="16"/>
+      <c r="B894" s="15"/>
     </row>
     <row r="895" ht="14.25" customHeight="1">
-      <c r="B895" s="16"/>
+      <c r="B895" s="15"/>
     </row>
     <row r="896" ht="14.25" customHeight="1">
-      <c r="B896" s="16"/>
+      <c r="B896" s="15"/>
     </row>
     <row r="897" ht="14.25" customHeight="1">
-      <c r="B897" s="16"/>
+      <c r="B897" s="15"/>
     </row>
     <row r="898" ht="14.25" customHeight="1">
-      <c r="B898" s="16"/>
+      <c r="B898" s="15"/>
     </row>
     <row r="899" ht="14.25" customHeight="1">
-      <c r="B899" s="16"/>
+      <c r="B899" s="15"/>
     </row>
     <row r="900" ht="14.25" customHeight="1">
-      <c r="B900" s="16"/>
+      <c r="B900" s="15"/>
     </row>
     <row r="901" ht="14.25" customHeight="1">
-      <c r="B901" s="16"/>
+      <c r="B901" s="15"/>
     </row>
     <row r="902" ht="14.25" customHeight="1">
-      <c r="B902" s="16"/>
+      <c r="B902" s="15"/>
     </row>
     <row r="903" ht="14.25" customHeight="1">
-      <c r="B903" s="16"/>
+      <c r="B903" s="15"/>
     </row>
     <row r="904" ht="14.25" customHeight="1">
-      <c r="B904" s="16"/>
+      <c r="B904" s="15"/>
     </row>
     <row r="905" ht="14.25" customHeight="1">
-      <c r="B905" s="16"/>
+      <c r="B905" s="15"/>
     </row>
     <row r="906" ht="14.25" customHeight="1">
-      <c r="B906" s="16"/>
+      <c r="B906" s="15"/>
     </row>
     <row r="907" ht="14.25" customHeight="1">
-      <c r="B907" s="16"/>
+      <c r="B907" s="15"/>
     </row>
     <row r="908" ht="14.25" customHeight="1">
-      <c r="B908" s="16"/>
+      <c r="B908" s="15"/>
     </row>
     <row r="909" ht="14.25" customHeight="1">
-      <c r="B909" s="16"/>
+      <c r="B909" s="15"/>
     </row>
     <row r="910" ht="14.25" customHeight="1">
-      <c r="B910" s="16"/>
+      <c r="B910" s="15"/>
     </row>
     <row r="911" ht="14.25" customHeight="1">
-      <c r="B911" s="16"/>
+      <c r="B911" s="15"/>
     </row>
     <row r="912" ht="14.25" customHeight="1">
-      <c r="B912" s="16"/>
+      <c r="B912" s="15"/>
     </row>
     <row r="913" ht="14.25" customHeight="1">
-      <c r="B913" s="16"/>
+      <c r="B913" s="15"/>
     </row>
     <row r="914" ht="14.25" customHeight="1">
-      <c r="B914" s="16"/>
+      <c r="B914" s="15"/>
     </row>
     <row r="915" ht="14.25" customHeight="1">
-      <c r="B915" s="16"/>
+      <c r="B915" s="15"/>
     </row>
     <row r="916" ht="14.25" customHeight="1">
-      <c r="B916" s="16"/>
+      <c r="B916" s="15"/>
     </row>
     <row r="917" ht="14.25" customHeight="1">
-      <c r="B917" s="16"/>
+      <c r="B917" s="15"/>
     </row>
     <row r="918" ht="14.25" customHeight="1">
-      <c r="B918" s="16"/>
+      <c r="B918" s="15"/>
     </row>
     <row r="919" ht="14.25" customHeight="1">
-      <c r="B919" s="16"/>
+      <c r="B919" s="15"/>
     </row>
     <row r="920" ht="14.25" customHeight="1">
-      <c r="B920" s="16"/>
+      <c r="B920" s="15"/>
     </row>
     <row r="921" ht="14.25" customHeight="1">
-      <c r="B921" s="16"/>
+      <c r="B921" s="15"/>
     </row>
     <row r="922" ht="14.25" customHeight="1">
-      <c r="B922" s="16"/>
+      <c r="B922" s="15"/>
     </row>
     <row r="923" ht="14.25" customHeight="1">
-      <c r="B923" s="16"/>
+      <c r="B923" s="15"/>
     </row>
     <row r="924" ht="14.25" customHeight="1">
-      <c r="B924" s="16"/>
+      <c r="B924" s="15"/>
     </row>
     <row r="925" ht="14.25" customHeight="1">
-      <c r="B925" s="16"/>
+      <c r="B925" s="15"/>
     </row>
     <row r="926" ht="14.25" customHeight="1">
-      <c r="B926" s="16"/>
+      <c r="B926" s="15"/>
     </row>
     <row r="927" ht="14.25" customHeight="1">
-      <c r="B927" s="16"/>
+      <c r="B927" s="15"/>
     </row>
     <row r="928" ht="14.25" customHeight="1">
-      <c r="B928" s="16"/>
+      <c r="B928" s="15"/>
     </row>
     <row r="929" ht="14.25" customHeight="1">
-      <c r="B929" s="16"/>
+      <c r="B929" s="15"/>
     </row>
     <row r="930" ht="14.25" customHeight="1">
-      <c r="B930" s="16"/>
+      <c r="B930" s="15"/>
     </row>
     <row r="931" ht="14.25" customHeight="1">
-      <c r="B931" s="16"/>
+      <c r="B931" s="15"/>
     </row>
     <row r="932" ht="14.25" customHeight="1">
-      <c r="B932" s="16"/>
+      <c r="B932" s="15"/>
     </row>
     <row r="933" ht="14.25" customHeight="1">
-      <c r="B933" s="16"/>
+      <c r="B933" s="15"/>
     </row>
     <row r="934" ht="14.25" customHeight="1">
-      <c r="B934" s="16"/>
+      <c r="B934" s="15"/>
     </row>
     <row r="935" ht="14.25" customHeight="1">
-      <c r="B935" s="16"/>
+      <c r="B935" s="15"/>
     </row>
     <row r="936" ht="14.25" customHeight="1">
-      <c r="B936" s="16"/>
+      <c r="B936" s="15"/>
     </row>
     <row r="937" ht="14.25" customHeight="1">
-      <c r="B937" s="16"/>
+      <c r="B937" s="15"/>
     </row>
     <row r="938" ht="14.25" customHeight="1">
-      <c r="B938" s="16"/>
+      <c r="B938" s="15"/>
     </row>
     <row r="939" ht="14.25" customHeight="1">
-      <c r="B939" s="16"/>
+      <c r="B939" s="15"/>
     </row>
     <row r="940" ht="14.25" customHeight="1">
-      <c r="B940" s="16"/>
+      <c r="B940" s="15"/>
     </row>
     <row r="941" ht="14.25" customHeight="1">
-      <c r="B941" s="16"/>
+      <c r="B941" s="15"/>
     </row>
     <row r="942" ht="14.25" customHeight="1">
-      <c r="B942" s="16"/>
+      <c r="B942" s="15"/>
     </row>
     <row r="943" ht="14.25" customHeight="1">
-      <c r="B943" s="16"/>
+      <c r="B943" s="15"/>
     </row>
     <row r="944" ht="14.25" customHeight="1">
-      <c r="B944" s="16"/>
+      <c r="B944" s="15"/>
     </row>
     <row r="945" ht="14.25" customHeight="1">
-      <c r="B945" s="16"/>
+      <c r="B945" s="15"/>
     </row>
     <row r="946" ht="14.25" customHeight="1">
-      <c r="B946" s="16"/>
+      <c r="B946" s="15"/>
     </row>
     <row r="947" ht="14.25" customHeight="1">
-      <c r="B947" s="16"/>
+      <c r="B947" s="15"/>
     </row>
     <row r="948" ht="14.25" customHeight="1">
-      <c r="B948" s="16"/>
+      <c r="B948" s="15"/>
     </row>
     <row r="949" ht="14.25" customHeight="1">
-      <c r="B949" s="16"/>
+      <c r="B949" s="15"/>
     </row>
     <row r="950" ht="14.25" customHeight="1">
-      <c r="B950" s="16"/>
+      <c r="B950" s="15"/>
     </row>
     <row r="951" ht="14.25" customHeight="1">
-      <c r="B951" s="16"/>
+      <c r="B951" s="15"/>
     </row>
     <row r="952" ht="14.25" customHeight="1">
-      <c r="B952" s="16"/>
+      <c r="B952" s="15"/>
     </row>
     <row r="953" ht="14.25" customHeight="1">
-      <c r="B953" s="16"/>
+      <c r="B953" s="15"/>
     </row>
     <row r="954" ht="14.25" customHeight="1">
-      <c r="B954" s="16"/>
+      <c r="B954" s="15"/>
     </row>
     <row r="955" ht="14.25" customHeight="1">
-      <c r="B955" s="16"/>
+      <c r="B955" s="15"/>
     </row>
     <row r="956" ht="14.25" customHeight="1">
-      <c r="B956" s="16"/>
+      <c r="B956" s="15"/>
     </row>
     <row r="957" ht="14.25" customHeight="1">
-      <c r="B957" s="16"/>
+      <c r="B957" s="15"/>
     </row>
     <row r="958" ht="14.25" customHeight="1">
-      <c r="B958" s="16"/>
+      <c r="B958" s="15"/>
     </row>
     <row r="959" ht="14.25" customHeight="1">
-      <c r="B959" s="16"/>
+      <c r="B959" s="15"/>
     </row>
     <row r="960" ht="14.25" customHeight="1">
-      <c r="B960" s="16"/>
+      <c r="B960" s="15"/>
     </row>
     <row r="961" ht="14.25" customHeight="1">
-      <c r="B961" s="16"/>
+      <c r="B961" s="15"/>
     </row>
     <row r="962" ht="14.25" customHeight="1">
-      <c r="B962" s="16"/>
+      <c r="B962" s="15"/>
     </row>
     <row r="963" ht="14.25" customHeight="1">
-      <c r="B963" s="16"/>
+      <c r="B963" s="15"/>
     </row>
     <row r="964" ht="14.25" customHeight="1">
-      <c r="B964" s="16"/>
+      <c r="B964" s="15"/>
     </row>
     <row r="965" ht="14.25" customHeight="1">
-      <c r="B965" s="16"/>
+      <c r="B965" s="15"/>
     </row>
     <row r="966" ht="14.25" customHeight="1">
-      <c r="B966" s="16"/>
+      <c r="B966" s="15"/>
     </row>
     <row r="967" ht="14.25" customHeight="1">
-      <c r="B967" s="16"/>
+      <c r="B967" s="15"/>
     </row>
     <row r="968" ht="14.25" customHeight="1">
-      <c r="B968" s="16"/>
+      <c r="B968" s="15"/>
     </row>
     <row r="969" ht="14.25" customHeight="1">
-      <c r="B969" s="16"/>
+      <c r="B969" s="15"/>
     </row>
     <row r="970" ht="14.25" customHeight="1">
-      <c r="B970" s="16"/>
+      <c r="B970" s="15"/>
     </row>
     <row r="971" ht="14.25" customHeight="1">
-      <c r="B971" s="16"/>
+      <c r="B971" s="15"/>
     </row>
     <row r="972" ht="14.25" customHeight="1">
-      <c r="B972" s="16"/>
+      <c r="B972" s="15"/>
     </row>
     <row r="973" ht="14.25" customHeight="1">
-      <c r="B973" s="16"/>
+      <c r="B973" s="15"/>
     </row>
     <row r="974" ht="14.25" customHeight="1">
-      <c r="B974" s="16"/>
+      <c r="B974" s="15"/>
     </row>
     <row r="975" ht="14.25" customHeight="1">
-      <c r="B975" s="16"/>
+      <c r="B975" s="15"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
-      <c r="B976" s="16"/>
+      <c r="B976" s="15"/>
     </row>
     <row r="977" ht="14.25" customHeight="1">
-      <c r="B977" s="16"/>
+      <c r="B977" s="15"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
-      <c r="B978" s="16"/>
+      <c r="B978" s="15"/>
     </row>
     <row r="979" ht="14.25" customHeight="1">
-      <c r="B979" s="16"/>
+      <c r="B979" s="15"/>
     </row>
     <row r="980" ht="14.25" customHeight="1">
-      <c r="B980" s="16"/>
+      <c r="B980" s="15"/>
     </row>
     <row r="981" ht="14.25" customHeight="1">
-      <c r="B981" s="16"/>
+      <c r="B981" s="15"/>
     </row>
     <row r="982" ht="14.25" customHeight="1">
-      <c r="B982" s="16"/>
+      <c r="B982" s="15"/>
     </row>
     <row r="983" ht="14.25" customHeight="1">
-      <c r="B983" s="16"/>
+      <c r="B983" s="15"/>
     </row>
     <row r="984" ht="14.25" customHeight="1">
-      <c r="B984" s="16"/>
+      <c r="B984" s="15"/>
     </row>
     <row r="985" ht="14.25" customHeight="1">
-      <c r="B985" s="16"/>
+      <c r="B985" s="15"/>
     </row>
     <row r="986" ht="14.25" customHeight="1">
-      <c r="B986" s="16"/>
+      <c r="B986" s="15"/>
     </row>
     <row r="987" ht="14.25" customHeight="1">
-      <c r="B987" s="16"/>
+      <c r="B987" s="15"/>
     </row>
     <row r="988" ht="14.25" customHeight="1">
-      <c r="B988" s="16"/>
+      <c r="B988" s="15"/>
     </row>
     <row r="989" ht="14.25" customHeight="1">
-      <c r="B989" s="16"/>
+      <c r="B989" s="15"/>
     </row>
     <row r="990" ht="14.25" customHeight="1">
-      <c r="B990" s="16"/>
+      <c r="B990" s="15"/>
     </row>
     <row r="991" ht="14.25" customHeight="1">
-      <c r="B991" s="16"/>
+      <c r="B991" s="15"/>
     </row>
     <row r="992" ht="14.25" customHeight="1">
-      <c r="B992" s="16"/>
+      <c r="B992" s="15"/>
     </row>
     <row r="993" ht="14.25" customHeight="1">
-      <c r="B993" s="16"/>
+      <c r="B993" s="15"/>
     </row>
     <row r="994" ht="14.25" customHeight="1">
-      <c r="B994" s="16"/>
+      <c r="B994" s="15"/>
     </row>
     <row r="995" ht="14.25" customHeight="1">
-      <c r="B995" s="16"/>
+      <c r="B995" s="15"/>
     </row>
     <row r="996" ht="14.25" customHeight="1">
-      <c r="B996" s="16"/>
+      <c r="B996" s="15"/>
     </row>
     <row r="997" ht="14.25" customHeight="1">
-      <c r="B997" s="16"/>
+      <c r="B997" s="15"/>
     </row>
     <row r="998" ht="14.25" customHeight="1">
-      <c r="B998" s="16"/>
+      <c r="B998" s="15"/>
     </row>
     <row r="999" ht="14.25" customHeight="1">
-      <c r="B999" s="16"/>
+      <c r="B999" s="15"/>
     </row>
     <row r="1000" ht="14.25" customHeight="1">
-      <c r="B1000" s="16"/>
+      <c r="B1000" s="15"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -4937,13 +4934,13 @@
       <c r="A2" s="3">
         <v>3320.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="3">
         <v>2.0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>4.99</v>
       </c>
     </row>
@@ -4951,115 +4948,115 @@
       <c r="A3" s="3">
         <v>4405.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="3">
         <v>24.0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>13.4</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="18"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="19"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="18"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="19"/>
-      <c r="D13" s="20"/>
+      <c r="B13" s="18"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="19"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="19"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="19"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="19"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="18"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="18"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="18"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="19"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="18"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="19"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="18"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="18"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="19"/>
-      <c r="D25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="19"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" ht="14.25" customHeight="1"/>
     <row r="30" ht="14.25" customHeight="1"/>
@@ -6069,7 +6066,7 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="5" t="str">
         <f>FACTURA!A2 &amp; PRODUCTO!A2
 </f>
         <v>8345693320</v>
@@ -6077,15 +6074,15 @@
       <c r="B2" s="3">
         <v>5.0</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <f>PRODUCTO!D2*B2
 </f>
         <v>24.95</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="5" t="str">
         <f>FACTURA!A2 &amp; PRODUCTO!A3
 </f>
         <v>8345694405</v>
@@ -6093,112 +6090,112 @@
       <c r="B3" s="3">
         <v>3.0</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <f>PRODUCTO!D3*B3
 </f>
         <v>40.2</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="C4" s="21"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="C5" s="21"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="C6" s="21"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="C7" s="21"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="C8" s="21"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="C9" s="21"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="C10" s="21"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="C11" s="21"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="21"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="21"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="21"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="21"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="21"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="21"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="21"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="21"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="21"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="21"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="C22" s="21"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="C23" s="21"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="C24" s="21"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="C25" s="21"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="C26" s="21"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="C27" s="21"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="C28" s="21"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" ht="14.25" customHeight="1"/>
     <row r="30" ht="14.25" customHeight="1"/>
